--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33298-d275533-Reviews-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Yorba-Linda.h919128.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2020 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r586028596-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>33298</t>
+  </si>
+  <si>
+    <t>275533</t>
+  </si>
+  <si>
+    <t>586028596</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Bad time</t>
+  </si>
+  <si>
+    <t>After a long day of travel, I was looking forward to a relaxing adult beverage in the room before going out for dinner. Alas! No ice in the fridge, and no ice machines in the hotel!The whole place smelled like a cross or fusion of curry and enchiladas. The halls were dirty and there was constant barking from dogs two doors down.For $15.00 a night more, next time I’m in Yorba Linda, l’ll stay at Aytes next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>After a long day of travel, I was looking forward to a relaxing adult beverage in the room before going out for dinner. Alas! No ice in the fridge, and no ice machines in the hotel!The whole place smelled like a cross or fusion of curry and enchiladas. The halls were dirty and there was constant barking from dogs two doors down.For $15.00 a night more, next time I’m in Yorba Linda, l’ll stay at Aytes next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r571397090-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>571397090</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Extended stay Yorba linda, Anaheim</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay. Good hotel Very good support staff Cleanliness and good maintenance of the room Fridge and Kitchen are well maintained Front desk support for was good on the first day, helped to get me settled down to locate nearby stores and helped to book taxiMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay. Good hotel Very good support staff Cleanliness and good maintenance of the room Fridge and Kitchen are well maintained Front desk support for was good on the first day, helped to get me settled down to locate nearby stores and helped to book taxiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r556276548-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>556276548</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Clean place to get a good night's sleep.</t>
+  </si>
+  <si>
+    <t>Stayed here for one night. Got in late, left early.  Room was clean  (Except toilet rim which I saw by accident). Felt safe being an older single woman.  Breakfast was nothing except coffee and packaged muffins, but they didn't really advertise it as a full breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for one night. Got in late, left early.  Room was clean  (Except toilet rim which I saw by accident). Felt safe being an older single woman.  Breakfast was nothing except coffee and packaged muffins, but they didn't really advertise it as a full breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r550964704-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>550964704</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Nice hotel, good location, no frills. Other than the bed being to hard for me, we had no problems. The lady working the front desk was very nice. There was a new building being built next door but the noise didn't bother us.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, good location, no frills. Other than the bed being to hard for me, we had no problems. The lady working the front desk was very nice. There was a new building being built next door but the noise didn't bother us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r546724832-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>546724832</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Didn’t sleep well</t>
+  </si>
+  <si>
+    <t>Ok except for the Room above me to much noise I would get a room on the top floor next great location close to everything stuff was sacure outside did not have to worry about things getting stolen while parked over nightMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Ok except for the Room above me to much noise I would get a room on the top floor next great location close to everything stuff was sacure outside did not have to worry about things getting stolen while parked over nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r546463827-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>546463827</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Great service great location. I will stay here everytime im in town.</t>
+  </si>
+  <si>
+    <t>My stay was a great stay, the parking lot was nice and clean, the hotel is in a good location near by restaurants, very clean and friendly at check in. My room was very nice and clean, the bed was very comfortable. I will definitely stay here when i come to town. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>My stay was a great stay, the parking lot was nice and clean, the hotel is in a good location near by restaurants, very clean and friendly at check in. My room was very nice and clean, the bed was very comfortable. I will definitely stay here when i come to town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r531582612-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>531582612</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Dog Friendly? - Not for those pet owners that clean up!</t>
+  </si>
+  <si>
+    <t>This is a dog friendlty hotel - but clearly many of the guests don't clean up after their pets, so there was dog poop all over the grounds! The hotel has a pet relief area with bags, but their usage is not enforced.  Either the hotel needs to have maintenance staff clean up or the hotel needs to better enforce pet owners cleaning up.  Suggestions:  cameras and/or forfeiture of deposit if pet owners don't pick up the poop!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>This is a dog friendlty hotel - but clearly many of the guests don't clean up after their pets, so there was dog poop all over the grounds! The hotel has a pet relief area with bags, but their usage is not enforced.  Either the hotel needs to have maintenance staff clean up or the hotel needs to better enforce pet owners cleaning up.  Suggestions:  cameras and/or forfeiture of deposit if pet owners don't pick up the poop!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r525501351-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>525501351</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging out </t>
+  </si>
+  <si>
+    <t>It's a great place, it's perfect to bring your own food which my friend and I loved. It's close to many restaurants and shopping area, it's got great architecture and the staff was really helpful. If there was a problem they helped me right away and made sure they took care of all my demands. It's not a modern hotel but everything is in great working condition. Which is what matters. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>It's a great place, it's perfect to bring your own food which my friend and I loved. It's close to many restaurants and shopping area, it's got great architecture and the staff was really helpful. If there was a problem they helped me right away and made sure they took care of all my demands. It's not a modern hotel but everything is in great working condition. Which is what matters. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r509490755-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>509490755</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Good stay for a good value</t>
+  </si>
+  <si>
+    <t>I just had a pleasant experience the whole week. The kitchen was a nice feature to have on an extended trip. The hotel is located in a business area so it was mostly quite. Unfortunately during my stay here there was construction going on but that isn’t the hotels fault. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I just had a pleasant experience the whole week. The kitchen was a nice feature to have on an extended trip. The hotel is located in a business area so it was mostly quite. Unfortunately during my stay here there was construction going on but that isn’t the hotels fault. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r507286058-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>507286058</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Will not stay here again</t>
+  </si>
+  <si>
+    <t>This hotel needs updating. It is dark, and not very clean. They offer 1 bottle of shampoo, no shower gel, conditioner or lotion. No blow dryer, no coffee maker in the room. Has a kitchenette, but  I had to visit the front desk to get utensils/accessories. They did not offer to deliver these to my room. I was handed a tote to carry the items and informed that the tote needed to be returned promptly. I will not use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>This hotel needs updating. It is dark, and not very clean. They offer 1 bottle of shampoo, no shower gel, conditioner or lotion. No blow dryer, no coffee maker in the room. Has a kitchenette, but  I had to visit the front desk to get utensils/accessories. They did not offer to deliver these to my room. I was handed a tote to carry the items and informed that the tote needed to be returned promptly. I will not use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r506662398-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>506662398</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>an expensive stay at cheap dirty hotel</t>
+  </si>
+  <si>
+    <t>I travel a lot and have stayed at some bad places before.  This one rates number one as the most overpriced,  CHEAP in every way imaginable, and by far the filthiest.  Sheriff routinely patrols this anomally of Yorba Linda because it has such a bad reputation.  They provide you with dirty towels, yellowed bedding, and stained/dirty plates and silverware.  Everything is chargable from copies to faxes to houskeeping.  Lowest qaulity i've experienced ever.  HOTEL HELLMoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a lot and have stayed at some bad places before.  This one rates number one as the most overpriced,  CHEAP in every way imaginable, and by far the filthiest.  Sheriff routinely patrols this anomally of Yorba Linda because it has such a bad reputation.  They provide you with dirty towels, yellowed bedding, and stained/dirty plates and silverware.  Everything is chargable from copies to faxes to houskeeping.  Lowest qaulity i've experienced ever.  HOTEL HELLMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r505682950-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>505682950</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Good Option</t>
+  </si>
+  <si>
+    <t>Extended stay was a good option for us based on the places that we needed and wanted to go to. We had business in Ponoma and yet wanted to spend time at Laguna Beach. Extended Stay is located in between. 25-35 min to both.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Extended stay was a good option for us based on the places that we needed and wanted to go to. We had business in Ponoma and yet wanted to spend time at Laguna Beach. Extended Stay is located in between. 25-35 min to both.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r502841473-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>502841473</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Needs TLC</t>
+  </si>
+  <si>
+    <t>The exterior looks nice but the interior needs a lot of work. Only saw the front desk clerk once on our three day stay. The halls smelled, the carpets had stains. Had tubs of pots and pans sit in the hallway all day. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>The exterior looks nice but the interior needs a lot of work. Only saw the front desk clerk once on our three day stay. The halls smelled, the carpets had stains. Had tubs of pots and pans sit in the hallway all day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r503056058-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>503056058</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Called hotel location to reserve 2 king bed rooms one month prior to check in.  Upon arrival, rooms had been given away.  Was told 3rd party bookings can bump hotel reservations. Settled for rooms not requested.  Food left in refrigerator; wifi was slow or in one room could not log on; shower head broken in one room; towels were thin and had ravels; room key had to be reset several times  I was told each time not to put it by my cellphone - I  know better.  Never put it near my cell.  Front desk staff are apparently ill-trained as conflicting reservation information was given.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Called hotel location to reserve 2 king bed rooms one month prior to check in.  Upon arrival, rooms had been given away.  Was told 3rd party bookings can bump hotel reservations. Settled for rooms not requested.  Food left in refrigerator; wifi was slow or in one room could not log on; shower head broken in one room; towels were thin and had ravels; room key had to be reset several times  I was told each time not to put it by my cellphone - I  know better.  Never put it near my cell.  Front desk staff are apparently ill-trained as conflicting reservation information was given.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r502188907-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>502188907</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We went to Disneyland and stayed here to save money since it also had a kitchen. It was always understaffed and you had to ask for everything, utencils, dish soap (there is no dishwasher), toaster, dish rag. One burner wasn't working on the stove and neither was the light. It was just very fun down but it was cheap and functional.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>We went to Disneyland and stayed here to save money since it also had a kitchen. It was always understaffed and you had to ask for everything, utencils, dish soap (there is no dishwasher), toaster, dish rag. One burner wasn't working on the stove and neither was the light. It was just very fun down but it was cheap and functional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r494295426-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>494295426</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Decent place but a little pricey. Was here for a two night trip and it was close to $300 for a one bed. I was place in a handicap room but didn't need and was unable to switch so that someone that needed those accommodations could use the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Decent place but a little pricey. Was here for a two night trip and it was close to $300 for a one bed. I was place in a handicap room but didn't need and was unable to switch so that someone that needed those accommodations could use the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r493190009-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>493190009</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>clean room, quick check in, plenty of parking space, off major highway, close to shopping center, easy to find, in room internet is a bit slow, TV is of ok size, bedsheets are well kept, the room was bigger than I expected, the table can be used as dinning tableMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>clean room, quick check in, plenty of parking space, off major highway, close to shopping center, easy to find, in room internet is a bit slow, TV is of ok size, bedsheets are well kept, the room was bigger than I expected, the table can be used as dinning tableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r492911876-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>492911876</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>BASIC HOTEL</t>
+  </si>
+  <si>
+    <t>My checking in process was made very nice. The young lady that helped me was wonderful! Many of these hotels aren't in the most beautiful areas, but this one was on top of a hill with great views, if your room is in the front. There is a Denny's in the same parking lot and a Sprouts market within a mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>My checking in process was made very nice. The young lady that helped me was wonderful! Many of these hotels aren't in the most beautiful areas, but this one was on top of a hill with great views, if your room is in the front. There is a Denny's in the same parking lot and a Sprouts market within a mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r468332707-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>468332707</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here with family to attend a wedding in Yorba Linda last December. Location is great. It's close to  restaurants  and  grocery stores.  I didnot encounter any issues with our accommodation. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here with family to attend a wedding in Yorba Linda last December. Location is great. It's close to  restaurants  and  grocery stores.  I didnot encounter any issues with our accommodation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r464391667-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>464391667</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stay here at least 4 times a year.  Always clean, comfortable and friendly.  We always bring our dog and he loves it too.  Staff is great always read to help in any way possible.  Close to freeways and shopping.  Love it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Stay here at least 4 times a year.  Always clean, comfortable and friendly.  We always bring our dog and he loves it too.  Staff is great always read to help in any way possible.  Close to freeways and shopping.  Love it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r454747680-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>454747680</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Nice but dated.</t>
+  </si>
+  <si>
+    <t>Overall it is a nice place. Rooms are dated, No plates, silverware, cooking pots or coffee maker in the room. I was told at check-out that I could request them. Will ask if I stay there again. A little difficult to find, good thing I had a GPS! Breakfast is free, it is a grab and go, no seating in that area. Nice idea in a way. Rooms were clean, counter in the kitchen area needed some maintenance. The location is nice, stores and restaurants close by. I will stay there again, not fancy, but good price for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Overall it is a nice place. Rooms are dated, No plates, silverware, cooking pots or coffee maker in the room. I was told at check-out that I could request them. Will ask if I stay there again. A little difficult to find, good thing I had a GPS! Breakfast is free, it is a grab and go, no seating in that area. Nice idea in a way. Rooms were clean, counter in the kitchen area needed some maintenance. The location is nice, stores and restaurants close by. I will stay there again, not fancy, but good price for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r447063455-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>447063455</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>People make the experience.</t>
+  </si>
+  <si>
+    <t>We booked a three night stay through a third party. A Disney trip for Christmas that could have ended badly when the third party booked 4 people into a one bed room  was saved by one very patient and compassionate concierge named Celia. After trying several options to help us, she personally went and cleaned a room for my party when the misunderstanding was made clear and called up to make sure that the room was OK a short time later. The rooms are nice, quiet location, but as someone who has worked customer service I can't thank Celia enough for her kindness and dedication. She made my whole vacation!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>We booked a three night stay through a third party. A Disney trip for Christmas that could have ended badly when the third party booked 4 people into a one bed room  was saved by one very patient and compassionate concierge named Celia. After trying several options to help us, she personally went and cleaned a room for my party when the misunderstanding was made clear and called up to make sure that the room was OK a short time later. The rooms are nice, quiet location, but as someone who has worked customer service I can't thank Celia enough for her kindness and dedication. She made my whole vacation!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r445273601-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>445273601</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Star Rating Not Close</t>
+  </si>
+  <si>
+    <t>I extended the stay via Priceline only to find out it was at two separate locations. The first called over to Yorba Linda to see if I could check in early and was told no. I went to the property in Yorba Linda and they, indeed, said I'd have to wait until 3:00. It was obvious that there were rooms available . . . policy was keeping me out of the room. That four hours caused a major problem with my business trip. Then, the internet speed was nonexistent. I ended up having to tether my computer to my phone, at great expense. The hotel is rated at 2.5 stars. I've stayed at dozens and dozens of hotels and try to stay in the 2.5-3 star range. This property isn't even close. Linens and towels are cheap and scratchy, the bathroom is in disrepair, amenities are cheap and there is no common area in the lobby . . . not even a restroom (which I asked for since I wasn't getting into my room until later). The "breakfast" is false advertising. The front desk is under-staffed. One person. Waiting is unbearable. Having said that, the two women I dealt with at the front desk were personable and nice, just constrained by hotel policy.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>I extended the stay via Priceline only to find out it was at two separate locations. The first called over to Yorba Linda to see if I could check in early and was told no. I went to the property in Yorba Linda and they, indeed, said I'd have to wait until 3:00. It was obvious that there were rooms available . . . policy was keeping me out of the room. That four hours caused a major problem with my business trip. Then, the internet speed was nonexistent. I ended up having to tether my computer to my phone, at great expense. The hotel is rated at 2.5 stars. I've stayed at dozens and dozens of hotels and try to stay in the 2.5-3 star range. This property isn't even close. Linens and towels are cheap and scratchy, the bathroom is in disrepair, amenities are cheap and there is no common area in the lobby . . . not even a restroom (which I asked for since I wasn't getting into my room until later). The "breakfast" is false advertising. The front desk is under-staffed. One person. Waiting is unbearable. Having said that, the two women I dealt with at the front desk were personable and nice, just constrained by hotel policy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r428584794-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>428584794</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>AVOID THIS PLACE</t>
+  </si>
+  <si>
+    <t>Stayed here with my family on a Disneyland trip.  We thought we would try to save a few bucks by staying outside of the Disney Anaheim area.  Big mistake.  Wish I would have paid the extra 50 per night to stay at a decent place.If you normally book 3 star or better hotels, you will regret staying here.  Everything is cheap and the rooms are haggard.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my family on a Disneyland trip.  We thought we would try to save a few bucks by staying outside of the Disney Anaheim area.  Big mistake.  Wish I would have paid the extra 50 per night to stay at a decent place.If you normally book 3 star or better hotels, you will regret staying here.  Everything is cheap and the rooms are haggard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r417757439-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>417757439</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay and awesome price</t>
+  </si>
+  <si>
+    <t>We got the room at priceline for a really good price.Little kitchen, two tables, very good bed and all very clean.The service is also very good.The hotel is close to some restaurants and costco. Nice place!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>We got the room at priceline for a really good price.Little kitchen, two tables, very good bed and all very clean.The service is also very good.The hotel is close to some restaurants and costco. Nice place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r417182209-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>417182209</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Did not live up to expectations</t>
+  </si>
+  <si>
+    <t>I have been booking rooms through Price Line for years. The star ratings have been consistent and very helpful in purchasing a room. However this time the Extended Stay America was very disappointing and did not live up to the 2.5 star rating.•	Room was dirty: found q-tip on floor, work table was sticky: bathroom tub could have been MUCH cleaner•	Did not repair leaky faucet in tub as requested•	Window slide was broken and would not stay open.  Requested repair, not completed•	Breakfast offered was a pre-packaged muffin. Not what I would call breakfast•	Dog poop on the sidewalk for 2+days•	Someone’s hair, other than my wife’s, was found in the bed•	No staff services--had to get go to the front desk for an additional pillow and hair dryer.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I have been booking rooms through Price Line for years. The star ratings have been consistent and very helpful in purchasing a room. However this time the Extended Stay America was very disappointing and did not live up to the 2.5 star rating.•	Room was dirty: found q-tip on floor, work table was sticky: bathroom tub could have been MUCH cleaner•	Did not repair leaky faucet in tub as requested•	Window slide was broken and would not stay open.  Requested repair, not completed•	Breakfast offered was a pre-packaged muffin. Not what I would call breakfast•	Dog poop on the sidewalk for 2+days•	Someone’s hair, other than my wife’s, was found in the bed•	No staff services--had to get go to the front desk for an additional pillow and hair dryer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r409773352-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>409773352</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>NOT a Place for an Extended Stay</t>
+  </si>
+  <si>
+    <t>Free W-Fi? They call it WIFI Lite when you log on. It is so slow, it reminded my of a dial up connection. Want faster speed? It's gonna cost you.No business centerBreakfast? It's called "grab and go." Coffee and a doughnut (or a muffin).The room is spartan and sparse. A double bed is what they gave me. I don't know if they have and queen size beds - the room is small.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Free W-Fi? They call it WIFI Lite when you log on. It is so slow, it reminded my of a dial up connection. Want faster speed? It's gonna cost you.No business centerBreakfast? It's called "grab and go." Coffee and a doughnut (or a muffin).The room is spartan and sparse. A double bed is what they gave me. I don't know if they have and queen size beds - the room is small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r393389507-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>393389507</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel..</t>
+  </si>
+  <si>
+    <t>The friendly staff combined with a reasonable price makes a stay here an excellent choice. It has the typical amenities as most extended stay hotels, including allowing pets. There's many eateries close by as well as retail shops. It's close to the freeway but surprisingly there's little freeway noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2016</t>
+  </si>
+  <si>
+    <t>The friendly staff combined with a reasonable price makes a stay here an excellent choice. It has the typical amenities as most extended stay hotels, including allowing pets. There's many eateries close by as well as retail shops. It's close to the freeway but surprisingly there's little freeway noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r391829981-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>391829981</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>This hotel is 2 and a half star but since I can't give half I stuck with two. The hallway smelled like someone smoked even though all the rooms says nonsmoking. The place was missing a hairdryer and trash can in the bathroom. I had to walk my trash over to the kitchenette area to toss. Also, there was leftover trash that wasn't tossed when the room was cleaned, which makes me wonder if the room was ever fully cleaned from the last visitor. Found hair on the vanity in the bathroom which grossed me out. The sheets on the bed appeared clean and changed. I think the a/c needs to be cleaned out. I had my allergies flaring all night and woke with a stuffy nose. Breakfast was a grab and go which is basically a muffin and granola bar. They also had coffee and hot cocoa. Overall, not the best place to stay but ok for a night. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is 2 and a half star but since I can't give half I stuck with two. The hallway smelled like someone smoked even though all the rooms says nonsmoking. The place was missing a hairdryer and trash can in the bathroom. I had to walk my trash over to the kitchenette area to toss. Also, there was leftover trash that wasn't tossed when the room was cleaned, which makes me wonder if the room was ever fully cleaned from the last visitor. Found hair on the vanity in the bathroom which grossed me out. The sheets on the bed appeared clean and changed. I think the a/c needs to be cleaned out. I had my allergies flaring all night and woke with a stuffy nose. Breakfast was a grab and go which is basically a muffin and granola bar. They also had coffee and hot cocoa. Overall, not the best place to stay but ok for a night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r391559609-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>391559609</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>No so nice</t>
+  </si>
+  <si>
+    <t>Stayed there one week, staff really helpful, but the place was not nice, room smelt of smoke (asked for a non smoking room ) no plates or cutlery Had to ask ( pack for one given (and I mean for one) every day outside bins were packed with rubbish overflowing .  They renovated the reception floor where I was there, no cover please tramping building dust up and down the corridors ( no one seemed to care) Sure this was a cheap place but not that cheap I would not stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Stayed there one week, staff really helpful, but the place was not nice, room smelt of smoke (asked for a non smoking room ) no plates or cutlery Had to ask ( pack for one given (and I mean for one) every day outside bins were packed with rubbish overflowing .  They renovated the reception floor where I was there, no cover please tramping building dust up and down the corridors ( no one seemed to care) Sure this was a cheap place but not that cheap I would not stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r379211176-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>379211176</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for a basketball tournament during the Memorial Day weekend and we loved it!! The area is located in an upscale area, easy accessible to dining and shopping which we took advantage of and the room was spotless and very comfortable. Desiree, at the front desk greeted us with a smile and was exceptionally friendly. The fact that she shared with us her commute to work each day to make us out -of - towners feel at home shows her dedication. I would definitely give this hotel a high rating!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for a basketball tournament during the Memorial Day weekend and we loved it!! The area is located in an upscale area, easy accessible to dining and shopping which we took advantage of and the room was spotless and very comfortable. Desiree, at the front desk greeted us with a smile and was exceptionally friendly. The fact that she shared with us her commute to work each day to make us out -of - towners feel at home shows her dedication. I would definitely give this hotel a high rating!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r377475711-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>377475711</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Not special but not bad</t>
+  </si>
+  <si>
+    <t>Chose this motel for the rate. It is clean but could use a little more attention in some areas, like the windows. They were quite dirty. And the sink faucet in the kitchenette leaked. Drip, drip, drip. The exterior looks good and the rooms are a decent size. The bed was okay. The bathroom was small but clean. The shower worked well. There are no amenities, however, except soap and shampoo. I had forgotten my hair dryer so I was disappointed that the motel didn't provide one. 
+The kitchenette had no dishes but you can request them. Only one wastebasket in the entire room. No door on the closet. A desk and one small table, each with a chair, were adequate. Everything was quiet except we could really hear the guests walking around above us. 
+Breakfast wasn't really breakfast; they had coffee, three flavors of muffins, granola bars, and oranges. That's it. They call it "grab and go." We did like the coffee okay.
+The desk clerk at checkin was friendly and thorough. But when we called the desk from our room (which we did twice), we had to leave a message for a call back and never got the call back. So we went to the desk for two drinking glasses.
+They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your...Chose this motel for the rate. It is clean but could use a little more attention in some areas, like the windows. They were quite dirty. And the sink faucet in the kitchenette leaked. Drip, drip, drip. The exterior looks good and the rooms are a decent size. The bed was okay. The bathroom was small but clean. The shower worked well. There are no amenities, however, except soap and shampoo. I had forgotten my hair dryer so I was disappointed that the motel didn't provide one. The kitchenette had no dishes but you can request them. Only one wastebasket in the entire room. No door on the closet. A desk and one small table, each with a chair, were adequate. Everything was quiet except we could really hear the guests walking around above us. Breakfast wasn't really breakfast; they had coffee, three flavors of muffins, granola bars, and oranges. That's it. They call it "grab and go." We did like the coffee okay.The desk clerk at checkin was friendly and thorough. But when we called the desk from our room (which we did twice), we had to leave a message for a call back and never got the call back. So we went to the desk for two drinking glasses.They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your pet with strangers. Parking is free and plentiful.We don't regret staying here, but we will probably stay elsewhere next trip just because of the operator's lack of pride in maintaining the property at top condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Chose this motel for the rate. It is clean but could use a little more attention in some areas, like the windows. They were quite dirty. And the sink faucet in the kitchenette leaked. Drip, drip, drip. The exterior looks good and the rooms are a decent size. The bed was okay. The bathroom was small but clean. The shower worked well. There are no amenities, however, except soap and shampoo. I had forgotten my hair dryer so I was disappointed that the motel didn't provide one. 
+The kitchenette had no dishes but you can request them. Only one wastebasket in the entire room. No door on the closet. A desk and one small table, each with a chair, were adequate. Everything was quiet except we could really hear the guests walking around above us. 
+Breakfast wasn't really breakfast; they had coffee, three flavors of muffins, granola bars, and oranges. That's it. They call it "grab and go." We did like the coffee okay.
+The desk clerk at checkin was friendly and thorough. But when we called the desk from our room (which we did twice), we had to leave a message for a call back and never got the call back. So we went to the desk for two drinking glasses.
+They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your...Chose this motel for the rate. It is clean but could use a little more attention in some areas, like the windows. They were quite dirty. And the sink faucet in the kitchenette leaked. Drip, drip, drip. The exterior looks good and the rooms are a decent size. The bed was okay. The bathroom was small but clean. The shower worked well. There are no amenities, however, except soap and shampoo. I had forgotten my hair dryer so I was disappointed that the motel didn't provide one. The kitchenette had no dishes but you can request them. Only one wastebasket in the entire room. No door on the closet. A desk and one small table, each with a chair, were adequate. Everything was quiet except we could really hear the guests walking around above us. Breakfast wasn't really breakfast; they had coffee, three flavors of muffins, granola bars, and oranges. That's it. They call it "grab and go." We did like the coffee okay.The desk clerk at checkin was friendly and thorough. But when we called the desk from our room (which we did twice), we had to leave a message for a call back and never got the call back. So we went to the desk for two drinking glasses.They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your pet with strangers. Parking is free and plentiful.We don't regret staying here, but we will probably stay elsewhere next trip just because of the operator's lack of pride in maintaining the property at top condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r356630653-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>356630653</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father &amp; son outing </t>
+  </si>
+  <si>
+    <t>Our stay was excellent!  The manager, Gigi,  went above &amp; beyond to help us coordinate our visit &amp; make other reservations.  She is a star!  Benny was also very attentive to both our hotel needs and other completely unrelated activities.   The two made the visit extraordinary. .MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Our stay was excellent!  The manager, Gigi,  went above &amp; beyond to help us coordinate our visit &amp; make other reservations.  She is a star!  Benny was also very attentive to both our hotel needs and other completely unrelated activities.   The two made the visit extraordinary. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r344712767-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>344712767</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Great Location- Ideal for Longer Stays!</t>
+  </si>
+  <si>
+    <t>We stayed a week over the Christmas break and this hotel was perfect. The full kitchen allowed us to bring food to prepare so we weren't eating out every meal. Breakfast is provided- grab &amp; go style. There is no gym or pool, which I would say is the biggest downfall, but we did laps around the beautiful property and stretched/used resistance bands. Lots of restaurants &amp; shopping nearby and close to parks, movie theater, and the Richard Nixon Library. Hollywood and Knotts Berry Farm were not too far down the highway. We would definitely stay here again if in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>We stayed a week over the Christmas break and this hotel was perfect. The full kitchen allowed us to bring food to prepare so we weren't eating out every meal. Breakfast is provided- grab &amp; go style. There is no gym or pool, which I would say is the biggest downfall, but we did laps around the beautiful property and stretched/used resistance bands. Lots of restaurants &amp; shopping nearby and close to parks, movie theater, and the Richard Nixon Library. Hollywood and Knotts Berry Farm were not too far down the highway. We would definitely stay here again if in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r332184283-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>332184283</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Crime Ridden</t>
+  </si>
+  <si>
+    <t>The hotel is dirty and unkept.Dust filled vents all over the place.Hotel is constantly overbooked and hotel uses maintenance issues to explain it.Get room ammenities and they are old, stained and just disgusting.Goto the room and firty carpets snd floors.  Dust all over.Windows don't open.Feces and urine on the matress cover.Police constantly at hotel for domestic issues, drug sales in parking lot, and even district manager admitted police looking for stolen cars.Trash all over parking lot, including hypodermic needles.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is dirty and unkept.Dust filled vents all over the place.Hotel is constantly overbooked and hotel uses maintenance issues to explain it.Get room ammenities and they are old, stained and just disgusting.Goto the room and firty carpets snd floors.  Dust all over.Windows don't open.Feces and urine on the matress cover.Police constantly at hotel for domestic issues, drug sales in parking lot, and even district manager admitted police looking for stolen cars.Trash all over parking lot, including hypodermic needles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r327471573-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>327471573</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>A Lot of Little Things Added Up....</t>
+  </si>
+  <si>
+    <t>First, the walls are VERY THIN. We could hear everything our neighbors were doing. EVERYTHING. The hot water is non-existent. The best I got was warm, which sucked because I woke up FREEZING thanks to the cold air leaking in through the windows and I tried to warm up in the shower, but no joy. Never a staff member at the desk.It's an average hotel. Good location. Average room.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded November 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2015</t>
+  </si>
+  <si>
+    <t>First, the walls are VERY THIN. We could hear everything our neighbors were doing. EVERYTHING. The hot water is non-existent. The best I got was warm, which sucked because I woke up FREEZING thanks to the cold air leaking in through the windows and I tried to warm up in the shower, but no joy. Never a staff member at the desk.It's an average hotel. Good location. Average room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r300485644-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>300485644</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Good location.</t>
+  </si>
+  <si>
+    <t>I've stayed here several times. It's always clean and the people are very nice. It's nice having a kitchen for a longer stay. The fruit, muffins and coffee is nice. There's also oatmeal and granola bars. The kitchens are not equipped, however if you let them know they will bring in the dishes, silverware and pans.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here several times. It's always clean and the people are very nice. It's nice having a kitchen for a longer stay. The fruit, muffins and coffee is nice. There's also oatmeal and granola bars. The kitchens are not equipped, however if you let them know they will bring in the dishes, silverware and pans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r294467978-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>294467978</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed; compared to their LA branches. </t>
+  </si>
+  <si>
+    <t>It's been a while since I've reviewed a hotel establishment, but I felt strongly about writing something about this Extended Stay (located in Yorba Linda).
+My fiancée has had plenty of visits with this chain establishment and it is because of this she chose our stay here. Unfortunately, this particular establishment does not live up to her sisters in the LA area. 
+Our first complaint came from the miscommunication in making reservations over the phone. Firstly, the operator stated that the branch we originally wanted to stay in was completely booked (Imperial Highway); which is understandable. What was confusing is that when we booked a stay at their Yorba Linda branch, the operator kept giving us directions to the Imperial Highway branch to check-in; even when we asked repeatedly if it was correct. Of course, upon arriving at their sister branch, they were full and we had to ask for directions to the Yorba Linda branch. 
+Secondly, we made reservations for a Non-smoking room with a King Sized bed; only to check-in and find our room had two twins. This was just NOT good business for us. If they didn't have what we requested, we should have been informed BEFORE we checked-in and traveled to their hotel. 
+Objectively speaking, I will continue this review with a professional demeanor and omit as much emotion as possible. 
+That being said, upon arriving to their hotel, the parking seemed a little inadequate for...It's been a while since I've reviewed a hotel establishment, but I felt strongly about writing something about this Extended Stay (located in Yorba Linda).My fiancée has had plenty of visits with this chain establishment and it is because of this she chose our stay here. Unfortunately, this particular establishment does not live up to her sisters in the LA area. Our first complaint came from the miscommunication in making reservations over the phone. Firstly, the operator stated that the branch we originally wanted to stay in was completely booked (Imperial Highway); which is understandable. What was confusing is that when we booked a stay at their Yorba Linda branch, the operator kept giving us directions to the Imperial Highway branch to check-in; even when we asked repeatedly if it was correct. Of course, upon arriving at their sister branch, they were full and we had to ask for directions to the Yorba Linda branch. Secondly, we made reservations for a Non-smoking room with a King Sized bed; only to check-in and find our room had two twins. This was just NOT good business for us. If they didn't have what we requested, we should have been informed BEFORE we checked-in and traveled to their hotel. Objectively speaking, I will continue this review with a professional demeanor and omit as much emotion as possible. That being said, upon arriving to their hotel, the parking seemed a little inadequate for the size of the building. But we managed to find two spots towards the rear. On a side note, we did realize that the vacant lot that was adjacent to their property was cleared and fenced; this may mean they are expanding I hope. We entered the hotel and didn't see anyone at the front desk and so we waited patiently for about 2 minutes. Then I began looking for a means to summon assistance and noticed there was no bell. After closer observation, I noticed a small button located on the front-desk itself. While it had no label indicating our authorization to using it, I figured what could be the worse that could happen. Ta-Da!! While this may sound trivial to most, I'm not one who likes to tinker with the unknown and so, I'm figuring that if the world-accepted [bell] isn't available, the least they could do is have the button labeled "Press for Assistance". At least the guest service at the desk was friendly. We had a room on the 2nd floor and the hallway smelled "interesting". Perhaps a mixture of smokiness and funk...We found out our room didn't have the bed size we requested and called the front-desk, only to find out that we had no other options.  In addition, their brochure online indicates that the room has a Fully-Equipped kitchen; my fiancée normally chooses this hotel chain for this specific reason. We actually had to call front-desk to request plates, cups, cutlery and the coffee-maker because our kitchen was bare (minus the microwave and fridge). This delayed our ability to prepare dinner by about 20-30 minutes. As for the room itself, the layout is identical to its LA branches. But I was unhappy about the location to the power-outlets in relation to the beds and there was only local channels available on TV. Also, you can hear EVERY footstep above you and the walls were "thin"; if you catch my drift. In the morning, their continental breakfast consisted of muffins, oranges, hot-water, coffee, coffee-mate and I heard there was oatmeal at one point. I'm accustomed to being offered boxed cereals, milk, OJ, bagels and condiments in most of my hotel stays. Overall, this stay was just a big disappointment; especially for the pricing. My fiancée explained that this hotel stay was the most expensive she's encountered and she has a traveling occupation. My guess is that they can get away with it because of the demand for hotels in the area (a very industrial sector in an affluent county).My opinion in the end is, if you MUST stay in the area, choose this particular hotel only as a last resort. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>It's been a while since I've reviewed a hotel establishment, but I felt strongly about writing something about this Extended Stay (located in Yorba Linda).
+My fiancée has had plenty of visits with this chain establishment and it is because of this she chose our stay here. Unfortunately, this particular establishment does not live up to her sisters in the LA area. 
+Our first complaint came from the miscommunication in making reservations over the phone. Firstly, the operator stated that the branch we originally wanted to stay in was completely booked (Imperial Highway); which is understandable. What was confusing is that when we booked a stay at their Yorba Linda branch, the operator kept giving us directions to the Imperial Highway branch to check-in; even when we asked repeatedly if it was correct. Of course, upon arriving at their sister branch, they were full and we had to ask for directions to the Yorba Linda branch. 
+Secondly, we made reservations for a Non-smoking room with a King Sized bed; only to check-in and find our room had two twins. This was just NOT good business for us. If they didn't have what we requested, we should have been informed BEFORE we checked-in and traveled to their hotel. 
+Objectively speaking, I will continue this review with a professional demeanor and omit as much emotion as possible. 
+That being said, upon arriving to their hotel, the parking seemed a little inadequate for...It's been a while since I've reviewed a hotel establishment, but I felt strongly about writing something about this Extended Stay (located in Yorba Linda).My fiancée has had plenty of visits with this chain establishment and it is because of this she chose our stay here. Unfortunately, this particular establishment does not live up to her sisters in the LA area. Our first complaint came from the miscommunication in making reservations over the phone. Firstly, the operator stated that the branch we originally wanted to stay in was completely booked (Imperial Highway); which is understandable. What was confusing is that when we booked a stay at their Yorba Linda branch, the operator kept giving us directions to the Imperial Highway branch to check-in; even when we asked repeatedly if it was correct. Of course, upon arriving at their sister branch, they were full and we had to ask for directions to the Yorba Linda branch. Secondly, we made reservations for a Non-smoking room with a King Sized bed; only to check-in and find our room had two twins. This was just NOT good business for us. If they didn't have what we requested, we should have been informed BEFORE we checked-in and traveled to their hotel. Objectively speaking, I will continue this review with a professional demeanor and omit as much emotion as possible. That being said, upon arriving to their hotel, the parking seemed a little inadequate for the size of the building. But we managed to find two spots towards the rear. On a side note, we did realize that the vacant lot that was adjacent to their property was cleared and fenced; this may mean they are expanding I hope. We entered the hotel and didn't see anyone at the front desk and so we waited patiently for about 2 minutes. Then I began looking for a means to summon assistance and noticed there was no bell. After closer observation, I noticed a small button located on the front-desk itself. While it had no label indicating our authorization to using it, I figured what could be the worse that could happen. Ta-Da!! While this may sound trivial to most, I'm not one who likes to tinker with the unknown and so, I'm figuring that if the world-accepted [bell] isn't available, the least they could do is have the button labeled "Press for Assistance". At least the guest service at the desk was friendly. We had a room on the 2nd floor and the hallway smelled "interesting". Perhaps a mixture of smokiness and funk...We found out our room didn't have the bed size we requested and called the front-desk, only to find out that we had no other options.  In addition, their brochure online indicates that the room has a Fully-Equipped kitchen; my fiancée normally chooses this hotel chain for this specific reason. We actually had to call front-desk to request plates, cups, cutlery and the coffee-maker because our kitchen was bare (minus the microwave and fridge). This delayed our ability to prepare dinner by about 20-30 minutes. As for the room itself, the layout is identical to its LA branches. But I was unhappy about the location to the power-outlets in relation to the beds and there was only local channels available on TV. Also, you can hear EVERY footstep above you and the walls were "thin"; if you catch my drift. In the morning, their continental breakfast consisted of muffins, oranges, hot-water, coffee, coffee-mate and I heard there was oatmeal at one point. I'm accustomed to being offered boxed cereals, milk, OJ, bagels and condiments in most of my hotel stays. Overall, this stay was just a big disappointment; especially for the pricing. My fiancée explained that this hotel stay was the most expensive she's encountered and she has a traveling occupation. My guess is that they can get away with it because of the demand for hotels in the area (a very industrial sector in an affluent county).My opinion in the end is, if you MUST stay in the area, choose this particular hotel only as a last resort. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r294079707-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>294079707</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>great room at a great price</t>
+  </si>
+  <si>
+    <t>the room was clean and ready, the location was perfect for our needs, the staff was friendly and efficient, the BED WAS VERY COMFORTABLE!!!  the grab and go breakfast was convenient, could use a full size mirror somewhere in the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>the room was clean and ready, the location was perfect for our needs, the staff was friendly and efficient, the BED WAS VERY COMFORTABLE!!!  the grab and go breakfast was convenient, could use a full size mirror somewhere in the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r287619186-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>287619186</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>As good as you’d expect, but staff makes it better</t>
+  </si>
+  <si>
+    <t>Location – Just a mile or so off 91/Riverside Freeway, 45 minutes from LAX and 30 minutes away from Disneyland. Mostly in the middle of a retail-complex area of big box stores and chain restaurants. Close to other attractions, but nothing in the neighborhood. 
+Check-in – We arrived quite late (after 11pm) at the end of a long day, and upon giving our name to the desk clerk, were told that he had our reservation…for three rooms! When trying to book online at the Extended Stay website, our first two tries at booking a room did not seem to go through, only the third did (and we only got one confirmation number/email). However, the hotel still had a reservation for three rooms. Luckily, Benny understood the confusion (perhaps Extended Stay’s website does this a lot?), and after a few minutes was able to cancel these other two rooms for us, with no charge to us. He even made sure that the 15% discount the website promised was applied to our stay. Through all of this, he was cheerful and courteous, exactly what you need after a stressful, long day. Throughout our trip all the staff we encountered were pleasant and friendly. 
+Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to...Location – Just a mile or so off 91/Riverside Freeway, 45 minutes from LAX and 30 minutes away from Disneyland. Mostly in the middle of a retail-complex area of big box stores and chain restaurants. Close to other attractions, but nothing in the neighborhood.  Check-in – We arrived quite late (after 11pm) at the end of a long day, and upon giving our name to the desk clerk, were told that he had our reservation…for three rooms! When trying to book online at the Extended Stay website, our first two tries at booking a room did not seem to go through, only the third did (and we only got one confirmation number/email). However, the hotel still had a reservation for three rooms. Luckily, Benny understood the confusion (perhaps Extended Stay’s website does this a lot?), and after a few minutes was able to cancel these other two rooms for us, with no charge to us. He even made sure that the 15% discount the website promised was applied to our stay. Through all of this, he was cheerful and courteous, exactly what you need after a stressful, long day. Throughout our trip all the staff we encountered were pleasant and friendly.  Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to work at. TV had good channel line-up including a few premium channels. Bathroom is large, and well lit, but the extractor fan was quite loud – reminded me of a jet engine starting up! There is WiFi, but it is not that fast: fine for web surfing and e-mailing, but probably not fast enough for streaming video.  Restaurant – No restaurant in the hotel (each room has its own kitchenette), or a bar. However, there is a decent place called Dukes just a 5 minute walk from the hotel as well as a lot of chain fast food places. If you are intending to cook in the room, Sprouts is just a 5 minute drive away, and for a smallish market has some good variety.  Amenities – None really; no pool, no gym, no business center. Not a criticism of the hotel that is just what this brand does to keep costs down. They do have some snacks for breakfast in the lobby (muffins, fruit, snack bars and coffee).  Check-out – The desk clerk confirmed our bill, and we were relieved that we were indeed only charged for one room. He asked if we needed anything, and the whole process was very quick.  It is an extended stay place, so don’t expect all the creature comforts of a boutique hotel. But if you want value, good staff and no frills, this fits the bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Location – Just a mile or so off 91/Riverside Freeway, 45 minutes from LAX and 30 minutes away from Disneyland. Mostly in the middle of a retail-complex area of big box stores and chain restaurants. Close to other attractions, but nothing in the neighborhood. 
+Check-in – We arrived quite late (after 11pm) at the end of a long day, and upon giving our name to the desk clerk, were told that he had our reservation…for three rooms! When trying to book online at the Extended Stay website, our first two tries at booking a room did not seem to go through, only the third did (and we only got one confirmation number/email). However, the hotel still had a reservation for three rooms. Luckily, Benny understood the confusion (perhaps Extended Stay’s website does this a lot?), and after a few minutes was able to cancel these other two rooms for us, with no charge to us. He even made sure that the 15% discount the website promised was applied to our stay. Through all of this, he was cheerful and courteous, exactly what you need after a stressful, long day. Throughout our trip all the staff we encountered were pleasant and friendly. 
+Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to...Location – Just a mile or so off 91/Riverside Freeway, 45 minutes from LAX and 30 minutes away from Disneyland. Mostly in the middle of a retail-complex area of big box stores and chain restaurants. Close to other attractions, but nothing in the neighborhood.  Check-in – We arrived quite late (after 11pm) at the end of a long day, and upon giving our name to the desk clerk, were told that he had our reservation…for three rooms! When trying to book online at the Extended Stay website, our first two tries at booking a room did not seem to go through, only the third did (and we only got one confirmation number/email). However, the hotel still had a reservation for three rooms. Luckily, Benny understood the confusion (perhaps Extended Stay’s website does this a lot?), and after a few minutes was able to cancel these other two rooms for us, with no charge to us. He even made sure that the 15% discount the website promised was applied to our stay. Through all of this, he was cheerful and courteous, exactly what you need after a stressful, long day. Throughout our trip all the staff we encountered were pleasant and friendly.  Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to work at. TV had good channel line-up including a few premium channels. Bathroom is large, and well lit, but the extractor fan was quite loud – reminded me of a jet engine starting up! There is WiFi, but it is not that fast: fine for web surfing and e-mailing, but probably not fast enough for streaming video.  Restaurant – No restaurant in the hotel (each room has its own kitchenette), or a bar. However, there is a decent place called Dukes just a 5 minute walk from the hotel as well as a lot of chain fast food places. If you are intending to cook in the room, Sprouts is just a 5 minute drive away, and for a smallish market has some good variety.  Amenities – None really; no pool, no gym, no business center. Not a criticism of the hotel that is just what this brand does to keep costs down. They do have some snacks for breakfast in the lobby (muffins, fruit, snack bars and coffee).  Check-out – The desk clerk confirmed our bill, and we were relieved that we were indeed only charged for one room. He asked if we needed anything, and the whole process was very quick.  It is an extended stay place, so don’t expect all the creature comforts of a boutique hotel. But if you want value, good staff and no frills, this fits the bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r286767568-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>286767568</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>FILTHY WINDOWS</t>
+  </si>
+  <si>
+    <t>We have NEVER seen dirtier windows in any business or home...period. The windows in this facility likely have never been cleaned. It's sooo depressing to look outside given that on the side of our room, there is a really nice view of the mountains.The sink in the kitchenette has not been cleaned with a polishing cleanser for months...and again, maybe, it has never been cleaned with a kitchen sink cleanser. It looks like all that housekeeping does is rinse it and wipe it dry.The WiFi in this facility is the slowest we have ever seen...period. For an additional $4 a day, they offer highs speed internet but it does not come as a part of the standard package. This internet is so slow, they must spend a great deal of money slowing it down so far that you want to pay for upgrading to a faster speed.  This is such a low-handed marketing technique, it's almost laughable.Very nice friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>We have NEVER seen dirtier windows in any business or home...period. The windows in this facility likely have never been cleaned. It's sooo depressing to look outside given that on the side of our room, there is a really nice view of the mountains.The sink in the kitchenette has not been cleaned with a polishing cleanser for months...and again, maybe, it has never been cleaned with a kitchen sink cleanser. It looks like all that housekeeping does is rinse it and wipe it dry.The WiFi in this facility is the slowest we have ever seen...period. For an additional $4 a day, they offer highs speed internet but it does not come as a part of the standard package. This internet is so slow, they must spend a great deal of money slowing it down so far that you want to pay for upgrading to a faster speed.  This is such a low-handed marketing technique, it's almost laughable.Very nice friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r286243404-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>286243404</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Hotel nightmare</t>
+  </si>
+  <si>
+    <t>Hotel guests being arrested, fire alarm going off, overturned shopping cart and other trash in front of the entrance for two days. Floors in the common areas were dirty. Our bathroom needed major work. Tub was black. Needs to be reglazed, sink leaked, door didn't lock. Very dissatisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Hotel guests being arrested, fire alarm going off, overturned shopping cart and other trash in front of the entrance for two days. Floors in the common areas were dirty. Our bathroom needed major work. Tub was black. Needs to be reglazed, sink leaked, door didn't lock. Very dissatisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r281184558-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>281184558</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>I don't understand all the negative reviews.  I loved my time here.  The staff went out of their way to assist whenever I needed something.  But residents need to realize that this is not your usual hotel.  There are a lot of people living here long-term who have been displaced from their homes and/or jobs.  Yes, there were maintenance issues now and then.  The maintenance man fixed whatever I asked him to.  Yes, there were loud guests on weekends.  That's why the police supervise when necessary.  No, there is no pool or gym here.  Guests should already know that when they book their rooms or ask ahead of time.  I'm grateful this place even existed and am sorry to read the bad reviews.  If you're looking for the Ritz, then this is not the place for you.  Thanks, ESA YL staff, you were awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>I don't understand all the negative reviews.  I loved my time here.  The staff went out of their way to assist whenever I needed something.  But residents need to realize that this is not your usual hotel.  There are a lot of people living here long-term who have been displaced from their homes and/or jobs.  Yes, there were maintenance issues now and then.  The maintenance man fixed whatever I asked him to.  Yes, there were loud guests on weekends.  That's why the police supervise when necessary.  No, there is no pool or gym here.  Guests should already know that when they book their rooms or ask ahead of time.  I'm grateful this place even existed and am sorry to read the bad reviews.  If you're looking for the Ritz, then this is not the place for you.  Thanks, ESA YL staff, you were awesome!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r278327653-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>278327653</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Never going back! Yuk!</t>
+  </si>
+  <si>
+    <t>When we drove up to the hotel (at around 10pm) the ENTIRE place was dark, including the parking lot.  We thought it was closed, but then saw 2 police cars in the parking lot.  We went into the lobby anyway, which had lighting, and there was a lady at the desk.  When we told her about the lack of lights and police, she looked terrified, and ran out the back.  She came back in a couple of minutes and said everything was fine.  We soon found out that this was probably normal.   This seems to be a "flop house" for drug dealers, drug addicts and hookers.  We were exhausted having just come from a long wedding and reception, so we took the room anyway.  It was filthy and the whole place was scary.   Absolutely do not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>When we drove up to the hotel (at around 10pm) the ENTIRE place was dark, including the parking lot.  We thought it was closed, but then saw 2 police cars in the parking lot.  We went into the lobby anyway, which had lighting, and there was a lady at the desk.  When we told her about the lack of lights and police, she looked terrified, and ran out the back.  She came back in a couple of minutes and said everything was fine.  We soon found out that this was probably normal.   This seems to be a "flop house" for drug dealers, drug addicts and hookers.  We were exhausted having just come from a long wedding and reception, so we took the room anyway.  It was filthy and the whole place was scary.   Absolutely do not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r273128579-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>273128579</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Not quite up to Motel 6 standards....</t>
+  </si>
+  <si>
+    <t>We stay here every year for Lobsterfest in Yorba Linda, the 3rd Friday in May. Each year, it gets a little more tired. Our bed this year was a king sized box spring with no mattress and a queen sized mattress cover. Uncomfortable to say the least. The kitchenette is fine, but we never use it. The toilet let out a high pitched scream every time it was flushed. Room was a little dirty, which makes you think what is going on where I'm not looking? It really is not the place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>We stay here every year for Lobsterfest in Yorba Linda, the 3rd Friday in May. Each year, it gets a little more tired. Our bed this year was a king sized box spring with no mattress and a queen sized mattress cover. Uncomfortable to say the least. The kitchenette is fine, but we never use it. The toilet let out a high pitched scream every time it was flushed. Room was a little dirty, which makes you think what is going on where I'm not looking? It really is not the place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r251563809-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>251563809</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>So Far</t>
+  </si>
+  <si>
+    <t>I just arrived, (1/28/2015, 10pm)and no one was at the front desk. The room was not very clean upon arrival. There was a white substance all over the door handle and door (inside). I shutter to even think about what is was, thank God for disinfectant wipes. The room thus far is functional. I am pretty sure I will not stay here on my next visit. Sorry for the negative feedback. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>I just arrived, (1/28/2015, 10pm)and no one was at the front desk. The room was not very clean upon arrival. There was a white substance all over the door handle and door (inside). I shutter to even think about what is was, thank God for disinfectant wipes. The room thus far is functional. I am pretty sure I will not stay here on my next visit. Sorry for the negative feedback. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r251193368-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>251193368</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Stay</t>
+  </si>
+  <si>
+    <t>This is my most favorite hotel to stay!The manager has her and the staff with great customer service skills! Making you feel comfortable and making your stay comfortable! Everything from cleanliness, to being attentive to needs for rooms are happily fulfilled! I would recommend this hotel I stay here about twice a month and have been very pleased!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my most favorite hotel to stay!The manager has her and the staff with great customer service skills! Making you feel comfortable and making your stay comfortable! Everything from cleanliness, to being attentive to needs for rooms are happily fulfilled! I would recommend this hotel I stay here about twice a month and have been very pleased!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r250651968-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>250651968</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>The best guest service! Outstanding!</t>
+  </si>
+  <si>
+    <t>This property delivers outstanding guest service and Connie the manager is fantastic.  I have previously worked in the hospitality industry for about 10 years, which includes front desk employment at a major resort hotel involving a mouse in Anaheim, and can honestly say the quality of guest service here is phenomenal.  The staff made me feel welcome and I looked forward to interacting with them everyday. 
+My husband and I stayed here already for about 30 days and will be staying here for another 30 days or more (60 days at least!)  Connie and the front desk staff are always welcoming, friendly, and always exceeded my guest requests when I asked for additional amenities (soap,coffee, packets, tissues,towels, cups) which I asked them for about everyday!  Even if they were out they still notified me when they could get it to me, which was always prompt and a short wait time.  Having a stove in the kitchen as well as the regular size refrigerator helped me out alot.  After traveling a lot and using only a mini refrigerator and microwave I was excited to be able have a real kitchen.  The front desk will have dishes, toasters, dish drying racks, coffee makers, cups and everything else for you.  Which is nice because if you don't need those items they aren't sitting on your counter cluttering up the space.  Just ask the front desk and they will kindly help you out.
+ I...This property delivers outstanding guest service and Connie the manager is fantastic.  I have previously worked in the hospitality industry for about 10 years, which includes front desk employment at a major resort hotel involving a mouse in Anaheim, and can honestly say the quality of guest service here is phenomenal.  The staff made me feel welcome and I looked forward to interacting with them everyday. My husband and I stayed here already for about 30 days and will be staying here for another 30 days or more (60 days at least!)  Connie and the front desk staff are always welcoming, friendly, and always exceeded my guest requests when I asked for additional amenities (soap,coffee, packets, tissues,towels, cups) which I asked them for about everyday!  Even if they were out they still notified me when they could get it to me, which was always prompt and a short wait time.  Having a stove in the kitchen as well as the regular size refrigerator helped me out alot.  After traveling a lot and using only a mini refrigerator and microwave I was excited to be able have a real kitchen.  The front desk will have dishes, toasters, dish drying racks, coffee makers, cups and everything else for you.  Which is nice because if you don't need those items they aren't sitting on your counter cluttering up the space.  Just ask the front desk and they will kindly help you out. I really noticed was how fresh and clean the lobby and halls smelled.  I had a non smoking upper floor room and it smelled so fresh and smoke free. I am allergic to smoke so this was a plus for me not smelling any smoke at all.  After doing my own over the top housekeeping inspection of the room, I was impressed! SUPER CLEAN! One time during our stay, on a day when I wasn't supposed to have my room cleaned, they squeezed me in anyway and went above and beyond my expectations.  I love the housekeeping staff because they are always smiling, courteous and double check with me about my needs in regards to what needs extra attention on my cleaning day. I love the quick breakfast in the morning too.  I always get a fresh cup of coffee and get free fresh apples or oranges. I like the healthy oatmeal packets and fruit options instead of the usual sugar loaded pastries at other inns.  It's perfect because you literally grab and go- everything can be stuffed in your travel bag, purse, or briefcase on your way out the door. Even though I had a kitchen in my room, I sometimes didn't have time to cook my breakfast.  Knowing i could still have a healthy option downstairs appealed to me.  I liked their muffins and they have granola bars as well.  Truthfully I went down there a lot for breakfast so I could say hi to Connie at the front desk! She is a delight and brings a welcoming presence to lobby in the morning. If she isn't there, you will find another delightful smiling face behind the counter because everyone I encountered at the front desk is nice. All my guest questions and or complaints about noises or anything were handled, resolved promptly and efficiently. Rarely did I have a concern, but when I did the front desk staff took care of it. Another thing to mention is they have FREE WIFI HOORAY!!I liked the fact that the location where this property is located is fairly quiet (people wise.) This property was so quiet that while staying here during New Years Eve you could hear a pin drop. No parties or loud incidents in the parking lot. It was super quiet.  I also love the fact that this property is within the Savi Ranch shopping center and around the corner to a Sprouts market.   I can walk to all the stores and restaurants safely. Very convenient!I will say that after staying at another Extended Stay America down the street and experiencing a not so great experience there, I was hesitant to book a room at another ESA location. Let me tell you, this property helped change our minds! We love this place and look forward to staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>This property delivers outstanding guest service and Connie the manager is fantastic.  I have previously worked in the hospitality industry for about 10 years, which includes front desk employment at a major resort hotel involving a mouse in Anaheim, and can honestly say the quality of guest service here is phenomenal.  The staff made me feel welcome and I looked forward to interacting with them everyday. 
+My husband and I stayed here already for about 30 days and will be staying here for another 30 days or more (60 days at least!)  Connie and the front desk staff are always welcoming, friendly, and always exceeded my guest requests when I asked for additional amenities (soap,coffee, packets, tissues,towels, cups) which I asked them for about everyday!  Even if they were out they still notified me when they could get it to me, which was always prompt and a short wait time.  Having a stove in the kitchen as well as the regular size refrigerator helped me out alot.  After traveling a lot and using only a mini refrigerator and microwave I was excited to be able have a real kitchen.  The front desk will have dishes, toasters, dish drying racks, coffee makers, cups and everything else for you.  Which is nice because if you don't need those items they aren't sitting on your counter cluttering up the space.  Just ask the front desk and they will kindly help you out.
+ I...This property delivers outstanding guest service and Connie the manager is fantastic.  I have previously worked in the hospitality industry for about 10 years, which includes front desk employment at a major resort hotel involving a mouse in Anaheim, and can honestly say the quality of guest service here is phenomenal.  The staff made me feel welcome and I looked forward to interacting with them everyday. My husband and I stayed here already for about 30 days and will be staying here for another 30 days or more (60 days at least!)  Connie and the front desk staff are always welcoming, friendly, and always exceeded my guest requests when I asked for additional amenities (soap,coffee, packets, tissues,towels, cups) which I asked them for about everyday!  Even if they were out they still notified me when they could get it to me, which was always prompt and a short wait time.  Having a stove in the kitchen as well as the regular size refrigerator helped me out alot.  After traveling a lot and using only a mini refrigerator and microwave I was excited to be able have a real kitchen.  The front desk will have dishes, toasters, dish drying racks, coffee makers, cups and everything else for you.  Which is nice because if you don't need those items they aren't sitting on your counter cluttering up the space.  Just ask the front desk and they will kindly help you out. I really noticed was how fresh and clean the lobby and halls smelled.  I had a non smoking upper floor room and it smelled so fresh and smoke free. I am allergic to smoke so this was a plus for me not smelling any smoke at all.  After doing my own over the top housekeeping inspection of the room, I was impressed! SUPER CLEAN! One time during our stay, on a day when I wasn't supposed to have my room cleaned, they squeezed me in anyway and went above and beyond my expectations.  I love the housekeeping staff because they are always smiling, courteous and double check with me about my needs in regards to what needs extra attention on my cleaning day. I love the quick breakfast in the morning too.  I always get a fresh cup of coffee and get free fresh apples or oranges. I like the healthy oatmeal packets and fruit options instead of the usual sugar loaded pastries at other inns.  It's perfect because you literally grab and go- everything can be stuffed in your travel bag, purse, or briefcase on your way out the door. Even though I had a kitchen in my room, I sometimes didn't have time to cook my breakfast.  Knowing i could still have a healthy option downstairs appealed to me.  I liked their muffins and they have granola bars as well.  Truthfully I went down there a lot for breakfast so I could say hi to Connie at the front desk! She is a delight and brings a welcoming presence to lobby in the morning. If she isn't there, you will find another delightful smiling face behind the counter because everyone I encountered at the front desk is nice. All my guest questions and or complaints about noises or anything were handled, resolved promptly and efficiently. Rarely did I have a concern, but when I did the front desk staff took care of it. Another thing to mention is they have FREE WIFI HOORAY!!I liked the fact that the location where this property is located is fairly quiet (people wise.) This property was so quiet that while staying here during New Years Eve you could hear a pin drop. No parties or loud incidents in the parking lot. It was super quiet.  I also love the fact that this property is within the Savi Ranch shopping center and around the corner to a Sprouts market.   I can walk to all the stores and restaurants safely. Very convenient!I will say that after staying at another Extended Stay America down the street and experiencing a not so great experience there, I was hesitant to book a room at another ESA location. Let me tell you, this property helped change our minds! We love this place and look forward to staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r243479605-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>243479605</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay Yorba Linda</t>
+  </si>
+  <si>
+    <t>The staff at this Extended Stay is excellent. The location is great. You have many big box retailers, places to eat along with movie theaters very close by. The location is quiet and safe and provides for easy access to the freeway. Parking is always available and the hotel is clean along with friendly guests. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2014</t>
+  </si>
+  <si>
+    <t>The staff at this Extended Stay is excellent. The location is great. You have many big box retailers, places to eat along with movie theaters very close by. The location is quiet and safe and provides for easy access to the freeway. Parking is always available and the hotel is clean along with friendly guests. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r240676736-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>240676736</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>Having stayed twice at the Yorba Linda site, I am amazed at the quality of professional and courteous service received from the staff.  They really "extend" themselves in responding to my questions or requests.  I have been very pleased with the cleanliness and amenities of both  rooms I booked.  Even though its located off the 91 freeway, the traffic sounds are negligible.I am planning to stay there again in two weeks !MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Having stayed twice at the Yorba Linda site, I am amazed at the quality of professional and courteous service received from the staff.  They really "extend" themselves in responding to my questions or requests.  I have been very pleased with the cleanliness and amenities of both  rooms I booked.  Even though its located off the 91 freeway, the traffic sounds are negligible.I am planning to stay there again in two weeks !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r239900012-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>239900012</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Exceeded what I expected</t>
+  </si>
+  <si>
+    <t>Having only stayed at an Extended Stay once, back in October of 2013 over in Phoenix, AZ. I had a bad impression going into my stay. The bad reviews on top of the now distant memories of mold, clogged sinks, and hard beds really had my expectations low on what to expect. In fact, I only chose this location because due to my bad experience I had a free night voucher I had to use up. 
+I went here because I was in town for a concert at The House Of Blues, and decided to make three nights of it. When we pulled up we (fiance and I) were a bit upset about the parking. It was 7PM and we had to park all the way in the back. But that is really where the complaints end.
+I checked it, and the lady who checked me in was so friendly and polite. She put me in room 217, gave me my kitchen package (which you need to ask for if you want dishes, and things to cook with), two keys and said if I needed anything more to come down and ask. I went to my room, did a quick look around and then went back to my car to unload.
+We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess...Having only stayed at an Extended Stay once, back in October of 2013 over in Phoenix, AZ. I had a bad impression going into my stay. The bad reviews on top of the now distant memories of mold, clogged sinks, and hard beds really had my expectations low on what to expect. In fact, I only chose this location because due to my bad experience I had a free night voucher I had to use up. I went here because I was in town for a concert at The House Of Blues, and decided to make three nights of it. When we pulled up we (fiance and I) were a bit upset about the parking. It was 7PM and we had to park all the way in the back. But that is really where the complaints end.I checked it, and the lady who checked me in was so friendly and polite. She put me in room 217, gave me my kitchen package (which you need to ask for if you want dishes, and things to cook with), two keys and said if I needed anything more to come down and ask. I went to my room, did a quick look around and then went back to my car to unload.We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess 4 is enough for most people, but I'm just accustomed to sleeping with 3, and so is my fiance. So on our way to dinner we asked if we could have 2 more pillows and a pot and pan. Both these requests were responded to with a smile and didn't take more than a few minutes. The room was perfect. I am 5'11" and was able to lay in the bathtub to take an actual bath with out my legs being bent. There was no mold unlike the last location I went to. When we cooked in the kitchen it did produce a little bit of a smokey haze, but once we opened the window it seemed to fix it.  The bed was a little firm, and we noticed it had a mattress topper on it, but it was not overly firm to the point where you could not sleep well. I am now planning on coming back to this specific location in March to celebrate my birthday, they have won me over as a customer at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Having only stayed at an Extended Stay once, back in October of 2013 over in Phoenix, AZ. I had a bad impression going into my stay. The bad reviews on top of the now distant memories of mold, clogged sinks, and hard beds really had my expectations low on what to expect. In fact, I only chose this location because due to my bad experience I had a free night voucher I had to use up. 
+I went here because I was in town for a concert at The House Of Blues, and decided to make three nights of it. When we pulled up we (fiance and I) were a bit upset about the parking. It was 7PM and we had to park all the way in the back. But that is really where the complaints end.
+I checked it, and the lady who checked me in was so friendly and polite. She put me in room 217, gave me my kitchen package (which you need to ask for if you want dishes, and things to cook with), two keys and said if I needed anything more to come down and ask. I went to my room, did a quick look around and then went back to my car to unload.
+We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess...Having only stayed at an Extended Stay once, back in October of 2013 over in Phoenix, AZ. I had a bad impression going into my stay. The bad reviews on top of the now distant memories of mold, clogged sinks, and hard beds really had my expectations low on what to expect. In fact, I only chose this location because due to my bad experience I had a free night voucher I had to use up. I went here because I was in town for a concert at The House Of Blues, and decided to make three nights of it. When we pulled up we (fiance and I) were a bit upset about the parking. It was 7PM and we had to park all the way in the back. But that is really where the complaints end.I checked it, and the lady who checked me in was so friendly and polite. She put me in room 217, gave me my kitchen package (which you need to ask for if you want dishes, and things to cook with), two keys and said if I needed anything more to come down and ask. I went to my room, did a quick look around and then went back to my car to unload.We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess 4 is enough for most people, but I'm just accustomed to sleeping with 3, and so is my fiance. So on our way to dinner we asked if we could have 2 more pillows and a pot and pan. Both these requests were responded to with a smile and didn't take more than a few minutes. The room was perfect. I am 5'11" and was able to lay in the bathtub to take an actual bath with out my legs being bent. There was no mold unlike the last location I went to. When we cooked in the kitchen it did produce a little bit of a smokey haze, but once we opened the window it seemed to fix it.  The bed was a little firm, and we noticed it had a mattress topper on it, but it was not overly firm to the point where you could not sleep well. I am now planning on coming back to this specific location in March to celebrate my birthday, they have won me over as a customer at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r238754675-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>238754675</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Our stay was for fun.</t>
+  </si>
+  <si>
+    <t>This hotel is very centrally located and you are able to get to all the major attractions like Disney land  Knotts berry farm Angeles stadium and the beaches. The room was very clean and well put together. The bed was ok. The staff was very prompt to our requests.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is very centrally located and you are able to get to all the major attractions like Disney land  Knotts berry farm Angeles stadium and the beaches. The room was very clean and well put together. The bed was ok. The staff was very prompt to our requests.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r235446906-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>235446906</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Very accommodating for the price!</t>
+  </si>
+  <si>
+    <t>We relocated from Maine to Southern California. We have 2 kitties and 1 dog (dachshund). It is not easy travelling with pets but the extended stay was very accommodating -- courteous, friendly, helpful. Check in was seamless. One time there were not enough clean towels for exchange so they brought clean ones to the room. Always smiled ... I think they may appreciate what it is to travel with pets ... at least it felt like it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2014</t>
+  </si>
+  <si>
+    <t>We relocated from Maine to Southern California. We have 2 kitties and 1 dog (dachshund). It is not easy travelling with pets but the extended stay was very accommodating -- courteous, friendly, helpful. Check in was seamless. One time there were not enough clean towels for exchange so they brought clean ones to the room. Always smiled ... I think they may appreciate what it is to travel with pets ... at least it felt like it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r235366426-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>235366426</t>
+  </si>
+  <si>
+    <t>Not worth it</t>
+  </si>
+  <si>
+    <t>I will never make this mistake again. As a non-smoker and parent to 2 small children,, sleeping in a room where the smoke has been sitting is vile. They told us that it was "Priceline" who requested the smoking room. They had no other availability so unfortunately it was up to my family to deal with it. The bathroom was not clean - some buildup around the toilet. Ew. Housekeeping is non-existent and in order to receive new towels - you must turn your original ones at the front desk. We asked for shampoo as it was not offered in room - they said that 2 was our maximum for the length of our stay. Although I believe the staff was just following orders, this was all around a bad experience. I deeply regret assuming that a 2.5 star (which is my usual) was going to leave this monstrosity out. Not impressed in the least bit. Another advisor said it perfectly "if you aren't so desperate to save $20 a night, the perks are well worth taking your money elsewhere".MoreShow less</t>
+  </si>
+  <si>
+    <t>I will never make this mistake again. As a non-smoker and parent to 2 small children,, sleeping in a room where the smoke has been sitting is vile. They told us that it was "Priceline" who requested the smoking room. They had no other availability so unfortunately it was up to my family to deal with it. The bathroom was not clean - some buildup around the toilet. Ew. Housekeeping is non-existent and in order to receive new towels - you must turn your original ones at the front desk. We asked for shampoo as it was not offered in room - they said that 2 was our maximum for the length of our stay. Although I believe the staff was just following orders, this was all around a bad experience. I deeply regret assuming that a 2.5 star (which is my usual) was going to leave this monstrosity out. Not impressed in the least bit. Another advisor said it perfectly "if you aren't so desperate to save $20 a night, the perks are well worth taking your money elsewhere".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r218355302-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>218355302</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>REMEMBERED WHY I STOPPED GOING TO ESA PROPERTIES</t>
+  </si>
+  <si>
+    <t>I booked an overnight express deal off Priceline for this place.  Although my stay was uneventful, I still felt compelled to post the following comments.
+What was satisfactory:
+1. WiFi was decent and free.
+2. Location was right off the 91 freeway and near lots of shopping and restaurants.
+3. Very quiet and secluded.
+4. The clerk at the front desk was courteous and able to track down and return some items that I had left behind when I checked out.
+What needs improvement or should be considered a negative:
+1. The kitchen was not equipped with any utensils or plates.  Why bother having a kitchen then?  Having to bring my own kitchen or track down something at the front desk is a pain.
+2. Priceline suggesting that this place had a free breakfast is a joke.  They literally have a cart with coffee, muffins out of the fridge and fruit you wouldn't buy at a store.
+3. ESAs generally lack sufficient staffing, particularly for maintenance and upkeep.  My room, in particular, had an ant problem.  The towels weren't exactly the cleanest I've ever seen either.  The pictures posted by other guests were not exaggerations. 
+4. The mattress felt and sounded more like a box spring. 
+5. Not exactly close to any attractions or points of interest.
+In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might...I booked an overnight express deal off Priceline for this place.  Although my stay was uneventful, I still felt compelled to post the following comments.What was satisfactory:1. WiFi was decent and free.2. Location was right off the 91 freeway and near lots of shopping and restaurants.3. Very quiet and secluded.4. The clerk at the front desk was courteous and able to track down and return some items that I had left behind when I checked out.What needs improvement or should be considered a negative:1. The kitchen was not equipped with any utensils or plates.  Why bother having a kitchen then?  Having to bring my own kitchen or track down something at the front desk is a pain.2. Priceline suggesting that this place had a free breakfast is a joke.  They literally have a cart with coffee, muffins out of the fridge and fruit you wouldn't buy at a store.3. ESAs generally lack sufficient staffing, particularly for maintenance and upkeep.  My room, in particular, had an ant problem.  The towels weren't exactly the cleanest I've ever seen either.  The pictures posted by other guests were not exaggerations. 4. The mattress felt and sounded more like a box spring. 5. Not exactly close to any attractions or points of interest.In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might consider this place.  If it were me, I'd call that money well spent on a few extra perks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>I booked an overnight express deal off Priceline for this place.  Although my stay was uneventful, I still felt compelled to post the following comments.
+What was satisfactory:
+1. WiFi was decent and free.
+2. Location was right off the 91 freeway and near lots of shopping and restaurants.
+3. Very quiet and secluded.
+4. The clerk at the front desk was courteous and able to track down and return some items that I had left behind when I checked out.
+What needs improvement or should be considered a negative:
+1. The kitchen was not equipped with any utensils or plates.  Why bother having a kitchen then?  Having to bring my own kitchen or track down something at the front desk is a pain.
+2. Priceline suggesting that this place had a free breakfast is a joke.  They literally have a cart with coffee, muffins out of the fridge and fruit you wouldn't buy at a store.
+3. ESAs generally lack sufficient staffing, particularly for maintenance and upkeep.  My room, in particular, had an ant problem.  The towels weren't exactly the cleanest I've ever seen either.  The pictures posted by other guests were not exaggerations. 
+4. The mattress felt and sounded more like a box spring. 
+5. Not exactly close to any attractions or points of interest.
+In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might...I booked an overnight express deal off Priceline for this place.  Although my stay was uneventful, I still felt compelled to post the following comments.What was satisfactory:1. WiFi was decent and free.2. Location was right off the 91 freeway and near lots of shopping and restaurants.3. Very quiet and secluded.4. The clerk at the front desk was courteous and able to track down and return some items that I had left behind when I checked out.What needs improvement or should be considered a negative:1. The kitchen was not equipped with any utensils or plates.  Why bother having a kitchen then?  Having to bring my own kitchen or track down something at the front desk is a pain.2. Priceline suggesting that this place had a free breakfast is a joke.  They literally have a cart with coffee, muffins out of the fridge and fruit you wouldn't buy at a store.3. ESAs generally lack sufficient staffing, particularly for maintenance and upkeep.  My room, in particular, had an ant problem.  The towels weren't exactly the cleanest I've ever seen either.  The pictures posted by other guests were not exaggerations. 4. The mattress felt and sounded more like a box spring. 5. Not exactly close to any attractions or points of interest.In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might consider this place.  If it were me, I'd call that money well spent on a few extra perks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r218290739-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>218290739</t>
+  </si>
+  <si>
+    <t>Slammed into a SMOKING room</t>
+  </si>
+  <si>
+    <t>my family booked a standard room through priceline.com.  We checked in and there was no mention of a smoking room.  We got off the elevator on the 4th floor and immediately noticed a power smell of smoke.  We walked in our room and noticed that we were placed in a smoking room - the smell was overwhelming.  we went down to the front desk and they told us that since we booked on priceline.com our rate was for a smoking room.  we called priceline to tell them and they said our reservation was not for a smoking room, but that there was nothing they coulld/would do about it.  In addition to the hotel room being smokey, the popcorn ceilings were stained yellow/brown from the smoke -- the hotel looks nice from the outside, but our room was dated.  Do not stay hear unless you need a smoking room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>my family booked a standard room through priceline.com.  We checked in and there was no mention of a smoking room.  We got off the elevator on the 4th floor and immediately noticed a power smell of smoke.  We walked in our room and noticed that we were placed in a smoking room - the smell was overwhelming.  we went down to the front desk and they told us that since we booked on priceline.com our rate was for a smoking room.  we called priceline to tell them and they said our reservation was not for a smoking room, but that there was nothing they coulld/would do about it.  In addition to the hotel room being smokey, the popcorn ceilings were stained yellow/brown from the smoke -- the hotel looks nice from the outside, but our room was dated.  Do not stay hear unless you need a smoking room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r215375131-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>215375131</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay America - Be Prepared</t>
+  </si>
+  <si>
+    <t>I had a week's business in Corona, CA, and my brother put me up at the ESA - Yorba Linda as it is located on the same exit as his home in YL. I'm a road warrior for many years, so I've stayed in a lot of hotels, both high end and not so much. The ESA YL was OK, but disappointing. Let em explain...
+First, you pay for the number of nights you are staying up front. That's ok, but be prepared. 
+I had originally set it up for a 5 night stay, but upon my registration, I told them it would be three nights only, and I paid in full for the three nights. I just checked my Amex bill, and I have been charged another approx $100 for something I can't figure out because I can't get them on the phone. As I'm typing this, I've been on hold for 26:40 minutes/seconds asking me to patiently wait for there pick up of my call "shortly". I will let you know what my total wait time is when I complete writing this.
+OK, it's a very modest registration area, so be prepared. I go to my room (325) and it's a double bed, small kitchenette and bathroom. It appears clean, but it is definitely aged. The TV is small, and the channel clarity reception is below average -- a general fuzziness of poor reception quality. Be prepared.
+When...I had a week's business in Corona, CA, and my brother put me up at the ESA - Yorba Linda as it is located on the same exit as his home in YL. I'm a road warrior for many years, so I've stayed in a lot of hotels, both high end and not so much. The ESA YL was OK, but disappointing. Let em explain...First, you pay for the number of nights you are staying up front. That's ok, but be prepared. I had originally set it up for a 5 night stay, but upon my registration, I told them it would be three nights only, and I paid in full for the three nights. I just checked my Amex bill, and I have been charged another approx $100 for something I can't figure out because I can't get them on the phone. As I'm typing this, I've been on hold for 26:40 minutes/seconds asking me to patiently wait for there pick up of my call "shortly". I will let you know what my total wait time is when I complete writing this.OK, it's a very modest registration area, so be prepared. I go to my room (325) and it's a double bed, small kitchenette and bathroom. It appears clean, but it is definitely aged. The TV is small, and the channel clarity reception is below average -- a general fuzziness of poor reception quality. Be prepared.When I turn down the bed covers, there is a nice little stain right in the middle of the fitted sheet. Now, I will tell you that it ended up not being anything that concerned me for cleanliness purposes -- it was a cleaning or ink stain or some other stain that just made it an unsightly first impression of the bedding. The beds and pillows are ok, but not particularly comfortable, so an extended stay would be troublesome to me. Be prepared.The bathroom is modest as well, and also aged like everything else. The towels were thin and scratchy, which just doesn't contribute to a good stay. Again, if on an extended stay. Be prepared. When I came back to my room the next day after a day of work, my room was in the condition I left it -- bed unmade, towels askew. When I went to dinner, I stopped by the front desk and asked them about it. I was told housekeeping comes by weekly, but that I could exchange towels whenever I wanted. Again, I get it -- save costs and reduce prices to consumers, but i wasn't aware of it.  So, be prepared.  I asked about a workout room, and was told they had none at this location. Be prepared.Btw, I'm on 43 minutes and holding still! Why are the Guest Relations people so busy??  Makes you wonder.I actually ended up checking out of my room before the evening of my second night there, so I spent only one night. My brother's couch in a nice home became a much more acceptable arrangement for me, so I took it.  I'm disappointed my stay at ESA YL turned out as it did. I write this so future guests can be prepared for what they will encounter. That place needs some investment dollars for updating and general guest services.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2014</t>
+  </si>
+  <si>
+    <t>I had a week's business in Corona, CA, and my brother put me up at the ESA - Yorba Linda as it is located on the same exit as his home in YL. I'm a road warrior for many years, so I've stayed in a lot of hotels, both high end and not so much. The ESA YL was OK, but disappointing. Let em explain...
+First, you pay for the number of nights you are staying up front. That's ok, but be prepared. 
+I had originally set it up for a 5 night stay, but upon my registration, I told them it would be three nights only, and I paid in full for the three nights. I just checked my Amex bill, and I have been charged another approx $100 for something I can't figure out because I can't get them on the phone. As I'm typing this, I've been on hold for 26:40 minutes/seconds asking me to patiently wait for there pick up of my call "shortly". I will let you know what my total wait time is when I complete writing this.
+OK, it's a very modest registration area, so be prepared. I go to my room (325) and it's a double bed, small kitchenette and bathroom. It appears clean, but it is definitely aged. The TV is small, and the channel clarity reception is below average -- a general fuzziness of poor reception quality. Be prepared.
+When...I had a week's business in Corona, CA, and my brother put me up at the ESA - Yorba Linda as it is located on the same exit as his home in YL. I'm a road warrior for many years, so I've stayed in a lot of hotels, both high end and not so much. The ESA YL was OK, but disappointing. Let em explain...First, you pay for the number of nights you are staying up front. That's ok, but be prepared. I had originally set it up for a 5 night stay, but upon my registration, I told them it would be three nights only, and I paid in full for the three nights. I just checked my Amex bill, and I have been charged another approx $100 for something I can't figure out because I can't get them on the phone. As I'm typing this, I've been on hold for 26:40 minutes/seconds asking me to patiently wait for there pick up of my call "shortly". I will let you know what my total wait time is when I complete writing this.OK, it's a very modest registration area, so be prepared. I go to my room (325) and it's a double bed, small kitchenette and bathroom. It appears clean, but it is definitely aged. The TV is small, and the channel clarity reception is below average -- a general fuzziness of poor reception quality. Be prepared.When I turn down the bed covers, there is a nice little stain right in the middle of the fitted sheet. Now, I will tell you that it ended up not being anything that concerned me for cleanliness purposes -- it was a cleaning or ink stain or some other stain that just made it an unsightly first impression of the bedding. The beds and pillows are ok, but not particularly comfortable, so an extended stay would be troublesome to me. Be prepared.The bathroom is modest as well, and also aged like everything else. The towels were thin and scratchy, which just doesn't contribute to a good stay. Again, if on an extended stay. Be prepared. When I came back to my room the next day after a day of work, my room was in the condition I left it -- bed unmade, towels askew. When I went to dinner, I stopped by the front desk and asked them about it. I was told housekeeping comes by weekly, but that I could exchange towels whenever I wanted. Again, I get it -- save costs and reduce prices to consumers, but i wasn't aware of it.  So, be prepared.  I asked about a workout room, and was told they had none at this location. Be prepared.Btw, I'm on 43 minutes and holding still! Why are the Guest Relations people so busy??  Makes you wonder.I actually ended up checking out of my room before the evening of my second night there, so I spent only one night. My brother's couch in a nice home became a much more acceptable arrangement for me, so I took it.  I'm disappointed my stay at ESA YL turned out as it did. I write this so future guests can be prepared for what they will encounter. That place needs some investment dollars for updating and general guest services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r205378715-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>205378715</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>It's always sunny in southern california</t>
+  </si>
+  <si>
+    <t>Nice hotel clean and quiet pretty much have everything you need;only have one complaint about the shower when you raise the shower lever most of the water still comes out of the bottom,but other than that i would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel clean and quiet pretty much have everything you need;only have one complaint about the shower when you raise the shower lever most of the water still comes out of the bottom,but other than that i would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r200879994-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>200879994</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Ok hotel.But staff?</t>
+  </si>
+  <si>
+    <t>Staff is hit and miss. Some are Great. But some Tell you to get clean towels you need to bring  the dirty ones down for exchange, FIRST TIME I HAVE EVER  been told that. Hair in shower, i was first one in and it wasnt mine. ONLY issue here is mostly the staff that seems not happy to help. WEED that out and i'd give a 5 for value and seeming clean. Tad out dated Rooms, but not bad for the Price. Some staff very nice also. But the bad is bad.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r199096859-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>199096859</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Could be so much better</t>
+  </si>
+  <si>
+    <t>What I like. Nice size room, full kitchen with counters, good price, nice recliner. What is lacking: NO PLACE to put even one piece of luggage, extremely slow wifi, you'll probably want to sign up for the $14.99 weekly upgrade, which unfortunately is PER DEVICE! And, the 'upgraded' wifi isn't much better! This chain does not provide amenities you're used to at other chains, including comparably priced extended stay chains like Candlewood Suites, NO:  Bath toiletries (one bar of soap provided, that's it), no kleenix, decent speed wifi, folding luggage cart, pad/pen.I asked for someone to look at my TV as several stations come in poorly, really unwatchable. When I got back that evening the problem persisted. I called front desk and they said it was going to be repaired the next morning. When that happened, they said problem was with reception, not the TV. OK, isn't it time to change your provider then. I won't be here again, just booked the Candlewood Suites in Garden Grove for my upcoming stay. Too bad, this place is closer for me.No fitness room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>What I like. Nice size room, full kitchen with counters, good price, nice recliner. What is lacking: NO PLACE to put even one piece of luggage, extremely slow wifi, you'll probably want to sign up for the $14.99 weekly upgrade, which unfortunately is PER DEVICE! And, the 'upgraded' wifi isn't much better! This chain does not provide amenities you're used to at other chains, including comparably priced extended stay chains like Candlewood Suites, NO:  Bath toiletries (one bar of soap provided, that's it), no kleenix, decent speed wifi, folding luggage cart, pad/pen.I asked for someone to look at my TV as several stations come in poorly, really unwatchable. When I got back that evening the problem persisted. I called front desk and they said it was going to be repaired the next morning. When that happened, they said problem was with reception, not the TV. OK, isn't it time to change your provider then. I won't be here again, just booked the Candlewood Suites in Garden Grove for my upcoming stay. Too bad, this place is closer for me.No fitness room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r194157492-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>194157492</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Home Sweet (temporary) Home!</t>
+  </si>
+  <si>
+    <t>This hotel is an exceptional value. No fuss check in was handled in a very professional friendly way. Relocating has been very stressful but no stress when it comes to having home away from home here. They make everything can be nient on site laundry to once a week made service. Even in the best hotels it's irritating having housekeeping banging on your door early or worse while trying to check out. Not here though. You are treated like it was your very own apartment. I can't believe for this price you can even set up your own voicemail on the telephone. Also any amenities that you need or maybe forgot are free at the front desk. I am really over the moon regarding the hospitality the friendly staff and the value!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is an exceptional value. No fuss check in was handled in a very professional friendly way. Relocating has been very stressful but no stress when it comes to having home away from home here. They make everything can be nient on site laundry to once a week made service. Even in the best hotels it's irritating having housekeeping banging on your door early or worse while trying to check out. Not here though. You are treated like it was your very own apartment. I can't believe for this price you can even set up your own voicemail on the telephone. Also any amenities that you need or maybe forgot are free at the front desk. I am really over the moon regarding the hospitality the friendly staff and the value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r193918633-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>193918633</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Great service at an affordable price!</t>
+  </si>
+  <si>
+    <t>This was my second stay at the Extended Stay America, Yorba Linda location, within the last 4 months. Each stay was about 5 weeks, so I got to know the staff and daily workings of the hotel fairly well. I can not say enough positive things about the friendliness and courteousness of the entire staff. The rooms are very clean and comfortable. They also accept pets, which is becoming more and more difficult to find, especially at an affordable yet clean place. I would not hesitate to stay here again, and would recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>This was my second stay at the Extended Stay America, Yorba Linda location, within the last 4 months. Each stay was about 5 weeks, so I got to know the staff and daily workings of the hotel fairly well. I can not say enough positive things about the friendliness and courteousness of the entire staff. The rooms are very clean and comfortable. They also accept pets, which is becoming more and more difficult to find, especially at an affordable yet clean place. I would not hesitate to stay here again, and would recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r189935013-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>189935013</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>A few Awesome Employees!</t>
+  </si>
+  <si>
+    <t>We checked into the Extended Stay on New years Eve. As we had Priclined the room, we were given a 1 queen bed, smoking room. The room smelled HORRIBLE of smoke. With an asthmatic daughter, it was not good. After requesting a new room of at all possible from the man on duty, we were told there was nothing available. We went to dinner and came back. Celia was then on duty and did everything she could to find us a new room. She was fabulous and saved the night! The room was ordinary but comfortable enough, but more importantly, it did not smell like smoke! After we checked out and headed to Disneyland, we discovered my daughters beloved baby blanket she had since birth (she is 8) was missing. We called the hotel 3 different times and were told it was not there. Today I called again and spoke with the manager Ruby. She said she would look for it. An hour later she called me back and had found the blanket! We are very grateful and glad she took the time to find something important for us! So, overall the hotel was nothing special, but some of the staff were!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We checked into the Extended Stay on New years Eve. As we had Priclined the room, we were given a 1 queen bed, smoking room. The room smelled HORRIBLE of smoke. With an asthmatic daughter, it was not good. After requesting a new room of at all possible from the man on duty, we were told there was nothing available. We went to dinner and came back. Celia was then on duty and did everything she could to find us a new room. She was fabulous and saved the night! The room was ordinary but comfortable enough, but more importantly, it did not smell like smoke! After we checked out and headed to Disneyland, we discovered my daughters beloved baby blanket she had since birth (she is 8) was missing. We called the hotel 3 different times and were told it was not there. Today I called again and spoke with the manager Ruby. She said she would look for it. An hour later she called me back and had found the blanket! We are very grateful and glad she took the time to find something important for us! So, overall the hotel was nothing special, but some of the staff were!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r175763775-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>175763775</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Cigarette smoke, questionable looking "guests"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We would have chosen the Ayers Hotel next door, had we realized the "guests" you are housing on the fourth floor. There would have been no point complaining to the manager, given we had already paid and that you really wouldn't have been able to  fix this issue.  Other than that, the rooms are mediocre. We almost got what we paid for. Needless to say, we won't be back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r175564342-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>175564342</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We will stay at this place again, all the employees were very helpful and we found lots of eatery's around our area. Nice shopping area if interested in that. Very easy on and off to I-91 so that was great. Close to many places we were visiting and a very nice park nearby. Prices were a little different as 3 different prices but hey still a great place if staying in area for more then few days.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r172558075-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>172558075</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>Not Bad At All</t>
+  </si>
+  <si>
+    <t>My stay started out rough with a room on the top floor, all the way at the end of the hall, with a small bed, and a room that was smokey. Luckily, when we complained of the smokiness, they moved us into a 1st floor room with a king bed right near the entrance, at no additional charge of course. That is the type of service I expect when I stay in hotels!The rooms were modern and clean. Nothing fancy at all, but the room was everything one would need for a basic, short stay. I was impressed by the kitchen and full-sized fridge, not that I needed any of that.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay started out rough with a room on the top floor, all the way at the end of the hall, with a small bed, and a room that was smokey. Luckily, when we complained of the smokiness, they moved us into a 1st floor room with a king bed right near the entrance, at no additional charge of course. That is the type of service I expect when I stay in hotels!The rooms were modern and clean. Nothing fancy at all, but the room was everything one would need for a basic, short stay. I was impressed by the kitchen and full-sized fridge, not that I needed any of that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r167440879-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>167440879</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>January 2013 Visit</t>
+  </si>
+  <si>
+    <t>Very satisfied with our first stay.  Clean if plain room, friendly staff, excellent location in Savi Ranch (great access to the 91 fwy), lots of restaurants and shops in vicinity.  Complimentary coffee/tea in the lobby each morning.  Also packaged muffins and instant oatmeal available.  Not fancy but more than adequate for a long stay.  Would reserve again if we are in the area.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r166994501-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>166994501</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>The hotel was really nice.  Everything looked modern and was super clean, no cigarette smoke at all.  The staff was also very hospitable and helpful.  Beds were very comfy. It is also situated in a very nice area.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r166841575-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>166841575</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay - Yorba Linda (Savi Ranch)</t>
+  </si>
+  <si>
+    <t>Nice place to stay.  Clean and comfortable.  House keeping visits once if you're staying 8 nights.  You can request towels at the front counter.  Hair dryer can be obtained from the front counter (not in room).(not much else to comment about).</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r158425203-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>158425203</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Great location - Excellent staff.</t>
+  </si>
+  <si>
+    <t>This location was very clean and had an excellent staff, the rooms were well kept up and we had a pleasant stay. The freeway access and location is perfectly placed with multiple stores and restaurants in walking distance. Will defiantly be back for another stay in the future, thanks again for going out of your way and making my stay perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2013</t>
+  </si>
+  <si>
+    <t>This location was very clean and had an excellent staff, the rooms were well kept up and we had a pleasant stay. The freeway access and location is perfectly placed with multiple stores and restaurants in walking distance. Will defiantly be back for another stay in the future, thanks again for going out of your way and making my stay perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r154917535-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>154917535</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Hard bed, little breakfast, broken appliances, poor attitude.</t>
+  </si>
+  <si>
+    <t>I read the other experiences and wonder if I stayed where they had. I was told my third party booking was a reason to expect less of a room; I was booked in a smoking room when I thought this was a non smoking hotel. The fridge was busted and some of our food spoiled. The bed was very hard and my back is hurting. Neighbors were constantly noisy and I complained three different nights; once at 3:00 am. Room smelled of cigerettes. I was told by staff this was due too vetilation and other rooms near being smoking rooms. Breakfast was very limited if not missing. Stayed at extended stay in Boise a week prior and it was about the opposite of this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>I read the other experiences and wonder if I stayed where they had. I was told my third party booking was a reason to expect less of a room; I was booked in a smoking room when I thought this was a non smoking hotel. The fridge was busted and some of our food spoiled. The bed was very hard and my back is hurting. Neighbors were constantly noisy and I complained three different nights; once at 3:00 am. Room smelled of cigerettes. I was told by staff this was due too vetilation and other rooms near being smoking rooms. Breakfast was very limited if not missing. Stayed at extended stay in Boise a week prior and it was about the opposite of this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r152231142-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>152231142</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>"Comfy, great staff and centrally located"</t>
+  </si>
+  <si>
+    <t>I have stayed here multiple times now in the past two years. Sometimes a couple days, sometimes 2 weeks. No matter what time of the year or week, the hotel is always very clean and the great staff always willing to help and make your stay...Comfy &amp; Happy. This location sits right off 91 frwy, so access to Orange, Riverside and LA countys, is your oyster! Location has good parking at "no charge" and close to hotel. WiFi works great and also is "No charge". Room charges very reasonable for Orange County and the area! Great quick breakfast also available in the lobby, at "no Charge"...this too is a great little perk. Great coffee!  Restaurants, fast food and shopping within walking distance. Which is great.This location has kinda become my home away from home. Connie is great and any issues I have during my stay, faxing, printing, new towels,TP,, almost anything,,, she is always helps me and my college age son(Reason for visits) with a smile! All staff is great,,they have become my O'hana while away from my home in Hawaii. Mahalo ESA - Yorba Linda! See you again Soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here multiple times now in the past two years. Sometimes a couple days, sometimes 2 weeks. No matter what time of the year or week, the hotel is always very clean and the great staff always willing to help and make your stay...Comfy &amp; Happy. This location sits right off 91 frwy, so access to Orange, Riverside and LA countys, is your oyster! Location has good parking at "no charge" and close to hotel. WiFi works great and also is "No charge". Room charges very reasonable for Orange County and the area! Great quick breakfast also available in the lobby, at "no Charge"...this too is a great little perk. Great coffee!  Restaurants, fast food and shopping within walking distance. Which is great.This location has kinda become my home away from home. Connie is great and any issues I have during my stay, faxing, printing, new towels,TP,, almost anything,,, she is always helps me and my college age son(Reason for visits) with a smile! All staff is great,,they have become my O'hana while away from my home in Hawaii. Mahalo ESA - Yorba Linda! See you again Soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r146655990-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>146655990</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>Bring Your Own Shampoo</t>
+  </si>
+  <si>
+    <t>As an extended stay hotel, I assumed they would supply bathroom products like shampoo...not only no shampoo but no hair dryer either. I had to go to the front desk &amp; request these items. A friend stayed in another room &amp; had the same problem.  The room was clean but other than that, I can't say anything positive about my stay. There is another hotel just up the street...stay there &amp; avoid this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded December 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2012</t>
+  </si>
+  <si>
+    <t>As an extended stay hotel, I assumed they would supply bathroom products like shampoo...not only no shampoo but no hair dryer either. I had to go to the front desk &amp; request these items. A friend stayed in another room &amp; had the same problem.  The room was clean but other than that, I can't say anything positive about my stay. There is another hotel just up the street...stay there &amp; avoid this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r142925701-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>142925701</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Definitely not what it seems!!</t>
+  </si>
+  <si>
+    <t>Stayed here this past weekend with a friend, and boy were we disappointed!! Everything looked very nice from the outside, lobby looks great, but that was where it ended. There was only one guy helping guests with their needs in the lobby, took far too long to check in. We were told our room STILL wasn't ready even though it was 45 minutes past 3, which was our designated check in time. No where on the site we booked from said anything about pets being allowed, and on top of that, the entire hotel ABSOLUTELY REEKS of stale cigarettes (when it stated on the website the hotel is non-smoking!!!) It is absolutely the most disgusting thing I've ever encountered. Days later and the smell is still burned into my nose. On the plus side the staff was generally quite friendly and the maid service spoke great English and were very pleasant. Beds were fairly firm, but obviously for the price I didn't expect anything luxury.Overall very disappointed with this hotel and would not advise anyone to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded October 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here this past weekend with a friend, and boy were we disappointed!! Everything looked very nice from the outside, lobby looks great, but that was where it ended. There was only one guy helping guests with their needs in the lobby, took far too long to check in. We were told our room STILL wasn't ready even though it was 45 minutes past 3, which was our designated check in time. No where on the site we booked from said anything about pets being allowed, and on top of that, the entire hotel ABSOLUTELY REEKS of stale cigarettes (when it stated on the website the hotel is non-smoking!!!) It is absolutely the most disgusting thing I've ever encountered. Days later and the smell is still burned into my nose. On the plus side the staff was generally quite friendly and the maid service spoke great English and were very pleasant. Beds were fairly firm, but obviously for the price I didn't expect anything luxury.Overall very disappointed with this hotel and would not advise anyone to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r140602724-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>140602724</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Don't make the same mistake I did!</t>
+  </si>
+  <si>
+    <t>I needed a place to say with my family (four total) in Yorba Linda, CA, and came across this place.  While the location was just right, our stay ended up not being worth it.  This might be a good option for people who want to stay for longer periods of time, as the hotel name indicates.  But for one night, not so much.  We were awoken in the middle of the night by our next door neighbor's large dog, barking for some reason, followed by their calling of the dog to be quiet.  This was followed by what sounded like a very large person in the room directly above us, who walked on the floor so loudly, I felt as though he might just come through it.  Lastly, the front desk staff left a little to be desired.  All in all not physically a bad place, but I'd never go back.  Stay in a place more suited for the travel you need....a lesson that I learned.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>I needed a place to say with my family (four total) in Yorba Linda, CA, and came across this place.  While the location was just right, our stay ended up not being worth it.  This might be a good option for people who want to stay for longer periods of time, as the hotel name indicates.  But for one night, not so much.  We were awoken in the middle of the night by our next door neighbor's large dog, barking for some reason, followed by their calling of the dog to be quiet.  This was followed by what sounded like a very large person in the room directly above us, who walked on the floor so loudly, I felt as though he might just come through it.  Lastly, the front desk staff left a little to be desired.  All in all not physically a bad place, but I'd never go back.  Stay in a place more suited for the travel you need....a lesson that I learned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r132858590-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>132858590</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>We booked this last minute to be close to the Nixon library. The check in was efficient and location close to the 91 fwy.  I was a little unnerved that the back door kept getting proped open even after I closed it....just a security concern.  Room was clean and kitchen was nice although it was set up for 2 guests while our room had 2 double beds. Didn't use the cooking facilities so didn't bother asking for extra set-ups.  Breakfast was "grab and go" including muffins, oatmeal, coffee, juice and bananas.  Lots of parking...would accommodate trailers or RVs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Yorba Linda, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>We booked this last minute to be close to the Nixon library. The check in was efficient and location close to the 91 fwy.  I was a little unnerved that the back door kept getting proped open even after I closed it....just a security concern.  Room was clean and kitchen was nice although it was set up for 2 guests while our room had 2 double beds. Didn't use the cooking facilities so didn't bother asking for extra set-ups.  Breakfast was "grab and go" including muffins, oatmeal, coffee, juice and bananas.  Lots of parking...would accommodate trailers or RVs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r129272623-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>129272623</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>IMPRESSED</t>
+  </si>
+  <si>
+    <t>WOW, WOW, WOW! The turn around of this property has left me jaw dropped. Everything is so clean and brand new. They even have free wifi and free breakfast! The coffee is DELICIOUS. The staff works hard to accommodate you as best as possible. You never get a no from them. They literally go the extra mile to make the impossible become possible. The manager Christine is very nice with a wonderful sense of humor. The young lady that checked in, Stephanie, has such a lovely smile. She has an amazing personality through the phone as she does in person. These ladies among with everyone else never stop smiling. For the price and service I received here, I wills definetly be back off business.MoreShow less</t>
+  </si>
+  <si>
+    <t>WOW, WOW, WOW! The turn around of this property has left me jaw dropped. Everything is so clean and brand new. They even have free wifi and free breakfast! The coffee is DELICIOUS. The staff works hard to accommodate you as best as possible. You never get a no from them. They literally go the extra mile to make the impossible become possible. The manager Christine is very nice with a wonderful sense of humor. The young lady that checked in, Stephanie, has such a lovely smile. She has an amazing personality through the phone as she does in person. These ladies among with everyone else never stop smiling. For the price and service I received here, I wills definetly be back off business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r128609358-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>128609358</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>Nice New Look and a Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>Had a great stay here. They have remodeled the hotel since my lats visit and it looks great. Comfortable beds, clean rooms, nice new look. The staff at the Extended Stay Yorba Linda was very helpful Christine, Stephanie and the rest of the front desk staff were very accommodating and go the extra mile to insure you enjoy your stay. I will absolutely stay here again, great experience thanks guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Had a great stay here. They have remodeled the hotel since my lats visit and it looks great. Comfortable beds, clean rooms, nice new look. The staff at the Extended Stay Yorba Linda was very helpful Christine, Stephanie and the rest of the front desk staff were very accommodating and go the extra mile to insure you enjoy your stay. I will absolutely stay here again, great experience thanks guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r126571854-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>126571854</t>
+  </si>
+  <si>
+    <t>03/23/2012</t>
+  </si>
+  <si>
+    <t>my car was broken into</t>
+  </si>
+  <si>
+    <t>My car was broken into here and since i was between moving from cross country practically all my belongings worth over 2k were stolen.They said the insurance company would be contacting me within a few days and its been a week still no call!!I talked to another lady there that also had her car broken into and apparently this happens a lot at this location.I am still patiently waiting for the insurance company to call since the front desk clerk wouldnt give me any info on how to reach the insurance dept when i called.Horrible expeirance!!!the hotel itself is fairly nice with clean rooms but the way they handled my situation is not coolMoreShow less</t>
+  </si>
+  <si>
+    <t>My car was broken into here and since i was between moving from cross country practically all my belongings worth over 2k were stolen.They said the insurance company would be contacting me within a few days and its been a week still no call!!I talked to another lady there that also had her car broken into and apparently this happens a lot at this location.I am still patiently waiting for the insurance company to call since the front desk clerk wouldnt give me any info on how to reach the insurance dept when i called.Horrible expeirance!!!the hotel itself is fairly nice with clean rooms but the way they handled my situation is not coolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r126542516-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
+  </si>
+  <si>
+    <t>126542516</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>The staff offers great service and the hotel is in a great location.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2662,5316 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>293</v>
+      </c>
+      <c r="X30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>301</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>157</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>323</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>328</v>
+      </c>
+      <c r="X34" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s">
+        <v>335</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>336</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>337</v>
+      </c>
+      <c r="X35" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>157</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>345</v>
+      </c>
+      <c r="X36" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>353</v>
+      </c>
+      <c r="O37" t="s">
+        <v>157</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>354</v>
+      </c>
+      <c r="X37" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" t="s">
+        <v>360</v>
+      </c>
+      <c r="L38" t="s">
+        <v>361</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>362</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="X38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>371</v>
+      </c>
+      <c r="O39" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>372</v>
+      </c>
+      <c r="X39" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" t="s">
+        <v>377</v>
+      </c>
+      <c r="K40" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" t="s">
+        <v>379</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>371</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>380</v>
+      </c>
+      <c r="X40" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" t="s">
+        <v>386</v>
+      </c>
+      <c r="L41" t="s">
+        <v>387</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>388</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>389</v>
+      </c>
+      <c r="X41" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+      <c r="K42" t="s">
+        <v>395</v>
+      </c>
+      <c r="L42" t="s">
+        <v>396</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" t="s">
+        <v>157</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>397</v>
+      </c>
+      <c r="X42" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>402</v>
+      </c>
+      <c r="K43" t="s">
+        <v>403</v>
+      </c>
+      <c r="L43" t="s">
+        <v>404</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>405</v>
+      </c>
+      <c r="X43" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>409</v>
+      </c>
+      <c r="J44" t="s">
+        <v>410</v>
+      </c>
+      <c r="K44" t="s">
+        <v>411</v>
+      </c>
+      <c r="L44" t="s">
+        <v>412</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>413</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>414</v>
+      </c>
+      <c r="X44" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>417</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>418</v>
+      </c>
+      <c r="J45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K45" t="s">
+        <v>420</v>
+      </c>
+      <c r="L45" t="s">
+        <v>421</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>388</v>
+      </c>
+      <c r="O45" t="s">
+        <v>157</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>422</v>
+      </c>
+      <c r="X45" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>426</v>
+      </c>
+      <c r="J46" t="s">
+        <v>427</v>
+      </c>
+      <c r="K46" t="s">
+        <v>428</v>
+      </c>
+      <c r="L46" t="s">
+        <v>429</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>388</v>
+      </c>
+      <c r="O46" t="s">
+        <v>157</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>430</v>
+      </c>
+      <c r="X46" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" t="s">
+        <v>435</v>
+      </c>
+      <c r="K47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>439</v>
+      </c>
+      <c r="X47" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>442</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>443</v>
+      </c>
+      <c r="J48" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" t="s">
+        <v>445</v>
+      </c>
+      <c r="L48" t="s">
+        <v>446</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>439</v>
+      </c>
+      <c r="X48" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>449</v>
+      </c>
+      <c r="J49" t="s">
+        <v>450</v>
+      </c>
+      <c r="K49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>453</v>
+      </c>
+      <c r="O49" t="s">
+        <v>157</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>454</v>
+      </c>
+      <c r="X49" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>458</v>
+      </c>
+      <c r="J50" t="s">
+        <v>459</v>
+      </c>
+      <c r="K50" t="s">
+        <v>460</v>
+      </c>
+      <c r="L50" t="s">
+        <v>461</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>462</v>
+      </c>
+      <c r="X50" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>465</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>466</v>
+      </c>
+      <c r="J51" t="s">
+        <v>467</v>
+      </c>
+      <c r="K51" t="s">
+        <v>468</v>
+      </c>
+      <c r="L51" t="s">
+        <v>469</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>470</v>
+      </c>
+      <c r="O51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>471</v>
+      </c>
+      <c r="X51" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>474</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>475</v>
+      </c>
+      <c r="J52" t="s">
+        <v>476</v>
+      </c>
+      <c r="K52" t="s">
+        <v>477</v>
+      </c>
+      <c r="L52" t="s">
+        <v>478</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>470</v>
+      </c>
+      <c r="O52" t="s">
+        <v>157</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>479</v>
+      </c>
+      <c r="X52" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>482</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>483</v>
+      </c>
+      <c r="J53" t="s">
+        <v>484</v>
+      </c>
+      <c r="K53" t="s">
+        <v>485</v>
+      </c>
+      <c r="L53" t="s">
+        <v>486</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>487</v>
+      </c>
+      <c r="X53" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>490</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="s">
+        <v>492</v>
+      </c>
+      <c r="K54" t="s">
+        <v>493</v>
+      </c>
+      <c r="L54" t="s">
+        <v>494</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>495</v>
+      </c>
+      <c r="O54" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>496</v>
+      </c>
+      <c r="X54" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>499</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>500</v>
+      </c>
+      <c r="J55" t="s">
+        <v>492</v>
+      </c>
+      <c r="K55" t="s">
+        <v>501</v>
+      </c>
+      <c r="L55" t="s">
+        <v>502</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>496</v>
+      </c>
+      <c r="X55" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>504</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>505</v>
+      </c>
+      <c r="J56" t="s">
+        <v>506</v>
+      </c>
+      <c r="K56" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>509</v>
+      </c>
+      <c r="O56" t="s">
+        <v>116</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>510</v>
+      </c>
+      <c r="X56" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>513</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>514</v>
+      </c>
+      <c r="J57" t="s">
+        <v>506</v>
+      </c>
+      <c r="K57" t="s">
+        <v>515</v>
+      </c>
+      <c r="L57" t="s">
+        <v>516</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>509</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>517</v>
+      </c>
+      <c r="X57" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>520</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>521</v>
+      </c>
+      <c r="J58" t="s">
+        <v>522</v>
+      </c>
+      <c r="K58" t="s">
+        <v>523</v>
+      </c>
+      <c r="L58" t="s">
+        <v>524</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>509</v>
+      </c>
+      <c r="O58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>525</v>
+      </c>
+      <c r="X58" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>528</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>529</v>
+      </c>
+      <c r="J59" t="s">
+        <v>530</v>
+      </c>
+      <c r="K59" t="s">
+        <v>531</v>
+      </c>
+      <c r="L59" t="s">
+        <v>532</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>533</v>
+      </c>
+      <c r="O59" t="s">
+        <v>89</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>534</v>
+      </c>
+      <c r="X59" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>537</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>538</v>
+      </c>
+      <c r="J60" t="s">
+        <v>539</v>
+      </c>
+      <c r="K60" t="s">
+        <v>540</v>
+      </c>
+      <c r="L60" t="s">
+        <v>541</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>542</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>543</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>544</v>
+      </c>
+      <c r="J61" t="s">
+        <v>545</v>
+      </c>
+      <c r="K61" t="s">
+        <v>546</v>
+      </c>
+      <c r="L61" t="s">
+        <v>547</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>548</v>
+      </c>
+      <c r="O61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>549</v>
+      </c>
+      <c r="X61" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>552</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>553</v>
+      </c>
+      <c r="J62" t="s">
+        <v>554</v>
+      </c>
+      <c r="K62" t="s">
+        <v>555</v>
+      </c>
+      <c r="L62" t="s">
+        <v>556</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>557</v>
+      </c>
+      <c r="X62" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>560</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>561</v>
+      </c>
+      <c r="J63" t="s">
+        <v>562</v>
+      </c>
+      <c r="K63" t="s">
+        <v>563</v>
+      </c>
+      <c r="L63" t="s">
+        <v>564</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>565</v>
+      </c>
+      <c r="X63" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>568</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>569</v>
+      </c>
+      <c r="J64" t="s">
+        <v>570</v>
+      </c>
+      <c r="K64" t="s">
+        <v>571</v>
+      </c>
+      <c r="L64" t="s">
+        <v>572</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>573</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>576</v>
+      </c>
+      <c r="J65" t="s">
+        <v>577</v>
+      </c>
+      <c r="K65" t="s">
+        <v>578</v>
+      </c>
+      <c r="L65" t="s">
+        <v>579</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>580</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>581</v>
+      </c>
+      <c r="J66" t="s">
+        <v>582</v>
+      </c>
+      <c r="K66" t="s">
+        <v>583</v>
+      </c>
+      <c r="L66" t="s">
+        <v>584</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>585</v>
+      </c>
+      <c r="O66" t="s">
+        <v>157</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>586</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>587</v>
+      </c>
+      <c r="J67" t="s">
+        <v>588</v>
+      </c>
+      <c r="K67" t="s">
+        <v>589</v>
+      </c>
+      <c r="L67" t="s">
+        <v>590</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>585</v>
+      </c>
+      <c r="O67" t="s">
+        <v>157</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>592</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>593</v>
+      </c>
+      <c r="J68" t="s">
+        <v>594</v>
+      </c>
+      <c r="K68" t="s">
+        <v>595</v>
+      </c>
+      <c r="L68" t="s">
+        <v>596</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>597</v>
+      </c>
+      <c r="O68" t="s">
+        <v>157</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>598</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>599</v>
+      </c>
+      <c r="J69" t="s">
+        <v>600</v>
+      </c>
+      <c r="K69" t="s">
+        <v>601</v>
+      </c>
+      <c r="L69" t="s">
+        <v>602</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>603</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>604</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>605</v>
+      </c>
+      <c r="J70" t="s">
+        <v>606</v>
+      </c>
+      <c r="K70" t="s">
+        <v>607</v>
+      </c>
+      <c r="L70" t="s">
+        <v>608</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>609</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>610</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>611</v>
+      </c>
+      <c r="J71" t="s">
+        <v>612</v>
+      </c>
+      <c r="K71" t="s">
+        <v>613</v>
+      </c>
+      <c r="L71" t="s">
+        <v>614</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>615</v>
+      </c>
+      <c r="X71" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>618</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>619</v>
+      </c>
+      <c r="J72" t="s">
+        <v>620</v>
+      </c>
+      <c r="K72" t="s">
+        <v>621</v>
+      </c>
+      <c r="L72" t="s">
+        <v>622</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>623</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>624</v>
+      </c>
+      <c r="X72" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>627</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>628</v>
+      </c>
+      <c r="J73" t="s">
+        <v>629</v>
+      </c>
+      <c r="K73" t="s">
+        <v>630</v>
+      </c>
+      <c r="L73" t="s">
+        <v>631</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>632</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>633</v>
+      </c>
+      <c r="X73" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>636</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>637</v>
+      </c>
+      <c r="J74" t="s">
+        <v>638</v>
+      </c>
+      <c r="K74" t="s">
+        <v>639</v>
+      </c>
+      <c r="L74" t="s">
+        <v>640</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>641</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>642</v>
+      </c>
+      <c r="X74" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>645</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>646</v>
+      </c>
+      <c r="J75" t="s">
+        <v>647</v>
+      </c>
+      <c r="K75" t="s">
+        <v>648</v>
+      </c>
+      <c r="L75" t="s">
+        <v>649</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>650</v>
+      </c>
+      <c r="X75" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>653</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>654</v>
+      </c>
+      <c r="J76" t="s">
+        <v>655</v>
+      </c>
+      <c r="K76" t="s">
+        <v>656</v>
+      </c>
+      <c r="L76" t="s">
+        <v>657</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>658</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>659</v>
+      </c>
+      <c r="X76" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>662</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>663</v>
+      </c>
+      <c r="J77" t="s">
+        <v>664</v>
+      </c>
+      <c r="K77" t="s">
+        <v>665</v>
+      </c>
+      <c r="L77" t="s">
+        <v>666</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>667</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>668</v>
+      </c>
+      <c r="X77" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>671</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>672</v>
+      </c>
+      <c r="J78" t="s">
+        <v>673</v>
+      </c>
+      <c r="K78" t="s">
+        <v>674</v>
+      </c>
+      <c r="L78" t="s">
+        <v>675</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>668</v>
+      </c>
+      <c r="X78" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>677</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>678</v>
+      </c>
+      <c r="J79" t="s">
+        <v>679</v>
+      </c>
+      <c r="K79" t="s">
+        <v>680</v>
+      </c>
+      <c r="L79" t="s">
+        <v>681</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>682</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>668</v>
+      </c>
+      <c r="X79" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>684</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>685</v>
+      </c>
+      <c r="J80" t="s">
+        <v>686</v>
+      </c>
+      <c r="K80" t="s">
+        <v>687</v>
+      </c>
+      <c r="L80" t="s">
+        <v>688</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>682</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>47281</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>690</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>691</v>
+      </c>
+      <c r="J81" t="s">
+        <v>686</v>
+      </c>
+      <c r="K81" t="s">
+        <v>692</v>
+      </c>
+      <c r="L81" t="s">
+        <v>693</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Carl P</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>After a long day of travel, I was looking forward to a relaxing adult beverage in the room before going out for dinner. Alas! No ice in the fridge, and no ice machines in the hotel!The whole place smelled like a cross or fusion of curry and enchiladas. The halls were dirty and there was constant barking from dogs two doors down.For $15.00 a night more, next time I’m in Yorba Linda, l’ll stay at Aytes next door.More</t>
   </si>
   <si>
+    <t>sridharn815</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r571397090-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Enjoyed my stay. Good hotel Very good support staff Cleanliness and good maintenance of the room Fridge and Kitchen are well maintained Front desk support for was good on the first day, helped to get me settled down to locate nearby stores and helped to book taxiMore</t>
   </si>
   <si>
+    <t>Colette T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r556276548-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Stayed here for one night. Got in late, left early.  Room was clean  (Except toilet rim which I saw by accident). Felt safe being an older single woman.  Breakfast was nothing except coffee and packaged muffins, but they didn't really advertise it as a full breakfast.More</t>
   </si>
   <si>
+    <t>Dennis B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r550964704-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Nice hotel, good location, no frills. Other than the bed being to hard for me, we had no problems. The lady working the front desk was very nice. There was a new building being built next door but the noise didn't bother us.More</t>
   </si>
   <si>
+    <t>robertlF5218LM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r546724832-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Ok except for the Room above me to much noise I would get a room on the top floor next great location close to everything stuff was sacure outside did not have to worry about things getting stolen while parked over nightMore</t>
   </si>
   <si>
+    <t>636nadiar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r546463827-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>My stay was a great stay, the parking lot was nice and clean, the hotel is in a good location near by restaurants, very clean and friendly at check in. My room was very nice and clean, the bed was very comfortable. I will definitely stay here when i come to town. More</t>
   </si>
   <si>
+    <t>631meriditha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r531582612-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>This is a dog friendlty hotel - but clearly many of the guests don't clean up after their pets, so there was dog poop all over the grounds! The hotel has a pet relief area with bags, but their usage is not enforced.  Either the hotel needs to have maintenance staff clean up or the hotel needs to better enforce pet owners cleaning up.  Suggestions:  cameras and/or forfeiture of deposit if pet owners don't pick up the poop!More</t>
   </si>
   <si>
+    <t>Steph G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r525501351-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>It's a great place, it's perfect to bring your own food which my friend and I loved. It's close to many restaurants and shopping area, it's got great architecture and the staff was really helpful. If there was a problem they helped me right away and made sure they took care of all my demands. It's not a modern hotel but everything is in great working condition. Which is what matters. More</t>
   </si>
   <si>
+    <t>DrDaveNB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r509490755-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>I just had a pleasant experience the whole week. The kitchen was a nice feature to have on an extended trip. The hotel is located in a business area so it was mostly quite. Unfortunately during my stay here there was construction going on but that isn’t the hotels fault. More</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r507286058-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>This hotel needs updating. It is dark, and not very clean. They offer 1 bottle of shampoo, no shower gel, conditioner or lotion. No blow dryer, no coffee maker in the room. Has a kitchenette, but  I had to visit the front desk to get utensils/accessories. They did not offer to deliver these to my room. I was handed a tote to carry the items and informed that the tote needed to be returned promptly. I will not use this hotel again.More</t>
   </si>
   <si>
+    <t>H9389AJjosephb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r506662398-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>I travel a lot and have stayed at some bad places before.  This one rates number one as the most overpriced,  CHEAP in every way imaginable, and by far the filthiest.  Sheriff routinely patrols this anomally of Yorba Linda because it has such a bad reputation.  They provide you with dirty towels, yellowed bedding, and stained/dirty plates and silverware.  Everything is chargable from copies to faxes to houskeeping.  Lowest qaulity i've experienced ever.  HOTEL HELLMore</t>
   </si>
   <si>
+    <t>randygenem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r505682950-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Extended stay was a good option for us based on the places that we needed and wanted to go to. We had business in Ponoma and yet wanted to spend time at Laguna Beach. Extended Stay is located in between. 25-35 min to both.More</t>
   </si>
   <si>
+    <t>96rodolfog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r502841473-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>The exterior looks nice but the interior needs a lot of work. Only saw the front desk clerk once on our three day stay. The halls smelled, the carpets had stains. Had tubs of pots and pans sit in the hallway all day. More</t>
   </si>
   <si>
+    <t>Julie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r503056058-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Called hotel location to reserve 2 king bed rooms one month prior to check in.  Upon arrival, rooms had been given away.  Was told 3rd party bookings can bump hotel reservations. Settled for rooms not requested.  Food left in refrigerator; wifi was slow or in one room could not log on; shower head broken in one room; towels were thin and had ravels; room key had to be reset several times  I was told each time not to put it by my cellphone - I  know better.  Never put it near my cell.  Front desk staff are apparently ill-trained as conflicting reservation information was given.More</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r502188907-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>We went to Disneyland and stayed here to save money since it also had a kitchen. It was always understaffed and you had to ask for everything, utencils, dish soap (there is no dishwasher), toaster, dish rag. One burner wasn't working on the stove and neither was the light. It was just very fun down but it was cheap and functional.More</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r494295426-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>Decent place but a little pricey. Was here for a two night trip and it was close to $300 for a one bed. I was place in a handicap room but didn't need and was unable to switch so that someone that needed those accommodations could use the room.More</t>
   </si>
   <si>
+    <t>mingz835</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r493190009-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -597,6 +648,9 @@
     <t>clean room, quick check in, plenty of parking space, off major highway, close to shopping center, easy to find, in room internet is a bit slow, TV is of ok size, bedsheets are well kept, the room was bigger than I expected, the table can be used as dinning tableMore</t>
   </si>
   <si>
+    <t>KATHLEEN R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r492911876-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>My checking in process was made very nice. The young lady that helped me was wonderful! Many of these hotels aren't in the most beautiful areas, but this one was on top of a hill with great views, if your room is in the front. There is a Denny's in the same parking lot and a Sprouts market within a mile.More</t>
   </si>
   <si>
+    <t>MaylouSJRNBSNCEN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r468332707-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Stayed here with family to attend a wedding in Yorba Linda last December. Location is great. It's close to  restaurants  and  grocery stores.  I didnot encounter any issues with our accommodation. More</t>
   </si>
   <si>
+    <t>larrydQ9765RR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r464391667-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>Stay here at least 4 times a year.  Always clean, comfortable and friendly.  We always bring our dog and he loves it too.  Staff is great always read to help in any way possible.  Close to freeways and shopping.  Love it.More</t>
   </si>
   <si>
+    <t>AZMan625</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r454747680-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>Overall it is a nice place. Rooms are dated, No plates, silverware, cooking pots or coffee maker in the room. I was told at check-out that I could request them. Will ask if I stay there again. A little difficult to find, good thing I had a GPS! Breakfast is free, it is a grab and go, no seating in that area. Nice idea in a way. Rooms were clean, counter in the kitchen area needed some maintenance. The location is nice, stores and restaurants close by. I will stay there again, not fancy, but good price for the area.More</t>
   </si>
   <si>
+    <t>cooperjesika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r447063455-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>We booked a three night stay through a third party. A Disney trip for Christmas that could have ended badly when the third party booked 4 people into a one bed room  was saved by one very patient and compassionate concierge named Celia. After trying several options to help us, she personally went and cleaned a room for my party when the misunderstanding was made clear and called up to make sure that the room was OK a short time later. The rooms are nice, quiet location, but as someone who has worked customer service I can't thank Celia enough for her kindness and dedication. She made my whole vacation!!More</t>
   </si>
   <si>
+    <t>CGolding</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r445273601-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -750,6 +819,9 @@
     <t>I extended the stay via Priceline only to find out it was at two separate locations. The first called over to Yorba Linda to see if I could check in early and was told no. I went to the property in Yorba Linda and they, indeed, said I'd have to wait until 3:00. It was obvious that there were rooms available . . . policy was keeping me out of the room. That four hours caused a major problem with my business trip. Then, the internet speed was nonexistent. I ended up having to tether my computer to my phone, at great expense. The hotel is rated at 2.5 stars. I've stayed at dozens and dozens of hotels and try to stay in the 2.5-3 star range. This property isn't even close. Linens and towels are cheap and scratchy, the bathroom is in disrepair, amenities are cheap and there is no common area in the lobby . . . not even a restroom (which I asked for since I wasn't getting into my room until later). The "breakfast" is false advertising. The front desk is under-staffed. One person. Waiting is unbearable. Having said that, the two women I dealt with at the front desk were personable and nice, just constrained by hotel policy.More</t>
   </si>
   <si>
+    <t>KirbyandJenny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r428584794-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -777,6 +849,9 @@
     <t>Stayed here with my family on a Disneyland trip.  We thought we would try to save a few bucks by staying outside of the Disney Anaheim area.  Big mistake.  Wish I would have paid the extra 50 per night to stay at a decent place.If you normally book 3 star or better hotels, you will regret staying here.  Everything is cheap and the rooms are haggard.More</t>
   </si>
   <si>
+    <t>Gabriel I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r417757439-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -804,6 +879,9 @@
     <t>We got the room at priceline for a really good price.Little kitchen, two tables, very good bed and all very clean.The service is also very good.The hotel is close to some restaurants and costco. Nice place!More</t>
   </si>
   <si>
+    <t>Harvey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r417182209-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -831,6 +909,9 @@
     <t>I have been booking rooms through Price Line for years. The star ratings have been consistent and very helpful in purchasing a room. However this time the Extended Stay America was very disappointing and did not live up to the 2.5 star rating.•	Room was dirty: found q-tip on floor, work table was sticky: bathroom tub could have been MUCH cleaner•	Did not repair leaky faucet in tub as requested•	Window slide was broken and would not stay open.  Requested repair, not completed•	Breakfast offered was a pre-packaged muffin. Not what I would call breakfast•	Dog poop on the sidewalk for 2+days•	Someone’s hair, other than my wife’s, was found in the bed•	No staff services--had to get go to the front desk for an additional pillow and hair dryer.More</t>
   </si>
   <si>
+    <t>TravellerfromPhilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r409773352-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -855,6 +936,9 @@
     <t>Free W-Fi? They call it WIFI Lite when you log on. It is so slow, it reminded my of a dial up connection. Want faster speed? It's gonna cost you.No business centerBreakfast? It's called "grab and go." Coffee and a doughnut (or a muffin).The room is spartan and sparse. A double bed is what they gave me. I don't know if they have and queen size beds - the room is small.More</t>
   </si>
   <si>
+    <t>Frank K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r393389507-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -882,6 +966,9 @@
     <t>The friendly staff combined with a reasonable price makes a stay here an excellent choice. It has the typical amenities as most extended stay hotels, including allowing pets. There's many eateries close by as well as retail shops. It's close to the freeway but surprisingly there's little freeway noise. More</t>
   </si>
   <si>
+    <t>thespit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r391829981-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -906,6 +993,9 @@
     <t>This hotel is 2 and a half star but since I can't give half I stuck with two. The hallway smelled like someone smoked even though all the rooms says nonsmoking. The place was missing a hairdryer and trash can in the bathroom. I had to walk my trash over to the kitchenette area to toss. Also, there was leftover trash that wasn't tossed when the room was cleaned, which makes me wonder if the room was ever fully cleaned from the last visitor. Found hair on the vanity in the bathroom which grossed me out. The sheets on the bed appeared clean and changed. I think the a/c needs to be cleaned out. I had my allergies flaring all night and woke with a stuffy nose. Breakfast was a grab and go which is basically a muffin and granola bar. They also had coffee and hot cocoa. Overall, not the best place to stay but ok for a night. More</t>
   </si>
   <si>
+    <t>jcass64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r391559609-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -933,6 +1023,9 @@
     <t>Stayed there one week, staff really helpful, but the place was not nice, room smelt of smoke (asked for a non smoking room ) no plates or cutlery Had to ask ( pack for one given (and I mean for one) every day outside bins were packed with rubbish overflowing .  They renovated the reception floor where I was there, no cover please tramping building dust up and down the corridors ( no one seemed to care) Sure this was a cheap place but not that cheap I would not stay there againMore</t>
   </si>
   <si>
+    <t>res193</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r379211176-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -958,6 +1051,9 @@
   </si>
   <si>
     <t>My family and I stayed at this hotel for a basketball tournament during the Memorial Day weekend and we loved it!! The area is located in an upscale area, easy accessible to dining and shopping which we took advantage of and the room was spotless and very comfortable. Desiree, at the front desk greeted us with a smile and was exceptionally friendly. The fact that she shared with us her commute to work each day to make us out -of - towners feel at home shows her dedication. I would definitely give this hotel a high rating!More</t>
+  </si>
+  <si>
+    <t>miznovember</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r377475711-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -992,6 +1088,9 @@
 They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your...Chose this motel for the rate. It is clean but could use a little more attention in some areas, like the windows. They were quite dirty. And the sink faucet in the kitchenette leaked. Drip, drip, drip. The exterior looks good and the rooms are a decent size. The bed was okay. The bathroom was small but clean. The shower worked well. There are no amenities, however, except soap and shampoo. I had forgotten my hair dryer so I was disappointed that the motel didn't provide one. The kitchenette had no dishes but you can request them. Only one wastebasket in the entire room. No door on the closet. A desk and one small table, each with a chair, were adequate. Everything was quiet except we could really hear the guests walking around above us. Breakfast wasn't really breakfast; they had coffee, three flavors of muffins, granola bars, and oranges. That's it. They call it "grab and go." We did like the coffee okay.The desk clerk at checkin was friendly and thorough. But when we called the desk from our room (which we did twice), we had to leave a message for a call back and never got the call back. So we went to the desk for two drinking glasses.They do accept pets for a fee, which is helpful for travelers but kennels charge less if you have time to find one. And want to leave your pet with strangers. Parking is free and plentiful.We don't regret staying here, but we will probably stay elsewhere next trip just because of the operator's lack of pride in maintaining the property at top condition.More</t>
   </si>
   <si>
+    <t>Evan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r356630653-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1019,6 +1118,9 @@
     <t>Our stay was excellent!  The manager, Gigi,  went above &amp; beyond to help us coordinate our visit &amp; make other reservations.  She is a star!  Benny was also very attentive to both our hotel needs and other completely unrelated activities.   The two made the visit extraordinary. .More</t>
   </si>
   <si>
+    <t>AZtraveler1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r344712767-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1046,6 +1148,9 @@
     <t>We stayed a week over the Christmas break and this hotel was perfect. The full kitchen allowed us to bring food to prepare so we weren't eating out every meal. Breakfast is provided- grab &amp; go style. There is no gym or pool, which I would say is the biggest downfall, but we did laps around the beautiful property and stretched/used resistance bands. Lots of restaurants &amp; shopping nearby and close to parks, movie theater, and the Richard Nixon Library. Hollywood and Knotts Berry Farm were not too far down the highway. We would definitely stay here again if in the area!More</t>
   </si>
   <si>
+    <t>Corey Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r332184283-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1070,6 +1175,9 @@
     <t>The hotel is dirty and unkept.Dust filled vents all over the place.Hotel is constantly overbooked and hotel uses maintenance issues to explain it.Get room ammenities and they are old, stained and just disgusting.Goto the room and firty carpets snd floors.  Dust all over.Windows don't open.Feces and urine on the matress cover.Police constantly at hotel for domestic issues, drug sales in parking lot, and even district manager admitted police looking for stolen cars.Trash all over parking lot, including hypodermic needles.More</t>
   </si>
   <si>
+    <t>wehaveapiperdoone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r327471573-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1097,6 +1205,9 @@
     <t>First, the walls are VERY THIN. We could hear everything our neighbors were doing. EVERYTHING. The hot water is non-existent. The best I got was warm, which sucked because I woke up FREEZING thanks to the cold air leaking in through the windows and I tried to warm up in the shower, but no joy. Never a staff member at the desk.It's an average hotel. Good location. Average room.More</t>
   </si>
   <si>
+    <t>mzks1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r300485644-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1122,6 +1233,9 @@
   </si>
   <si>
     <t>I've stayed here several times. It's always clean and the people are very nice. It's nice having a kitchen for a longer stay. The fruit, muffins and coffee is nice. There's also oatmeal and granola bars. The kitchens are not equipped, however if you let them know they will bring in the dishes, silverware and pans.More</t>
+  </si>
+  <si>
+    <t>Nigumo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r294467978-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1161,6 +1275,9 @@
 That being said, upon arriving to their hotel, the parking seemed a little inadequate for...It's been a while since I've reviewed a hotel establishment, but I felt strongly about writing something about this Extended Stay (located in Yorba Linda).My fiancée has had plenty of visits with this chain establishment and it is because of this she chose our stay here. Unfortunately, this particular establishment does not live up to her sisters in the LA area. Our first complaint came from the miscommunication in making reservations over the phone. Firstly, the operator stated that the branch we originally wanted to stay in was completely booked (Imperial Highway); which is understandable. What was confusing is that when we booked a stay at their Yorba Linda branch, the operator kept giving us directions to the Imperial Highway branch to check-in; even when we asked repeatedly if it was correct. Of course, upon arriving at their sister branch, they were full and we had to ask for directions to the Yorba Linda branch. Secondly, we made reservations for a Non-smoking room with a King Sized bed; only to check-in and find our room had two twins. This was just NOT good business for us. If they didn't have what we requested, we should have been informed BEFORE we checked-in and traveled to their hotel. Objectively speaking, I will continue this review with a professional demeanor and omit as much emotion as possible. That being said, upon arriving to their hotel, the parking seemed a little inadequate for the size of the building. But we managed to find two spots towards the rear. On a side note, we did realize that the vacant lot that was adjacent to their property was cleared and fenced; this may mean they are expanding I hope. We entered the hotel and didn't see anyone at the front desk and so we waited patiently for about 2 minutes. Then I began looking for a means to summon assistance and noticed there was no bell. After closer observation, I noticed a small button located on the front-desk itself. While it had no label indicating our authorization to using it, I figured what could be the worse that could happen. Ta-Da!! While this may sound trivial to most, I'm not one who likes to tinker with the unknown and so, I'm figuring that if the world-accepted [bell] isn't available, the least they could do is have the button labeled "Press for Assistance". At least the guest service at the desk was friendly. We had a room on the 2nd floor and the hallway smelled "interesting". Perhaps a mixture of smokiness and funk...We found out our room didn't have the bed size we requested and called the front-desk, only to find out that we had no other options.  In addition, their brochure online indicates that the room has a Fully-Equipped kitchen; my fiancée normally chooses this hotel chain for this specific reason. We actually had to call front-desk to request plates, cups, cutlery and the coffee-maker because our kitchen was bare (minus the microwave and fridge). This delayed our ability to prepare dinner by about 20-30 minutes. As for the room itself, the layout is identical to its LA branches. But I was unhappy about the location to the power-outlets in relation to the beds and there was only local channels available on TV. Also, you can hear EVERY footstep above you and the walls were "thin"; if you catch my drift. In the morning, their continental breakfast consisted of muffins, oranges, hot-water, coffee, coffee-mate and I heard there was oatmeal at one point. I'm accustomed to being offered boxed cereals, milk, OJ, bagels and condiments in most of my hotel stays. Overall, this stay was just a big disappointment; especially for the pricing. My fiancée explained that this hotel stay was the most expensive she's encountered and she has a traveling occupation. My guess is that they can get away with it because of the demand for hotels in the area (a very industrial sector in an affluent county).My opinion in the end is, if you MUST stay in the area, choose this particular hotel only as a last resort. More</t>
   </si>
   <si>
+    <t>Terri C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r294079707-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1183,6 +1300,9 @@
   </si>
   <si>
     <t>the room was clean and ready, the location was perfect for our needs, the staff was friendly and efficient, the BED WAS VERY COMFORTABLE!!!  the grab and go breakfast was convenient, could use a full size mirror somewhere in the roomMore</t>
+  </si>
+  <si>
+    <t>UJ99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r287619186-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1216,6 +1336,9 @@
 Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to...Location – Just a mile or so off 91/Riverside Freeway, 45 minutes from LAX and 30 minutes away from Disneyland. Mostly in the middle of a retail-complex area of big box stores and chain restaurants. Close to other attractions, but nothing in the neighborhood.  Check-in – We arrived quite late (after 11pm) at the end of a long day, and upon giving our name to the desk clerk, were told that he had our reservation…for three rooms! When trying to book online at the Extended Stay website, our first two tries at booking a room did not seem to go through, only the third did (and we only got one confirmation number/email). However, the hotel still had a reservation for three rooms. Luckily, Benny understood the confusion (perhaps Extended Stay’s website does this a lot?), and after a few minutes was able to cancel these other two rooms for us, with no charge to us. He even made sure that the 15% discount the website promised was applied to our stay. Through all of this, he was cheerful and courteous, exactly what you need after a stressful, long day. Throughout our trip all the staff we encountered were pleasant and friendly.  Room – Room is of a decent size, and includes a large refrigerator, cooker and microwave. It is clean but starting to look its age a bit. Bed was quite comfortable, and there is a nice size desk to work at. TV had good channel line-up including a few premium channels. Bathroom is large, and well lit, but the extractor fan was quite loud – reminded me of a jet engine starting up! There is WiFi, but it is not that fast: fine for web surfing and e-mailing, but probably not fast enough for streaming video.  Restaurant – No restaurant in the hotel (each room has its own kitchenette), or a bar. However, there is a decent place called Dukes just a 5 minute walk from the hotel as well as a lot of chain fast food places. If you are intending to cook in the room, Sprouts is just a 5 minute drive away, and for a smallish market has some good variety.  Amenities – None really; no pool, no gym, no business center. Not a criticism of the hotel that is just what this brand does to keep costs down. They do have some snacks for breakfast in the lobby (muffins, fruit, snack bars and coffee).  Check-out – The desk clerk confirmed our bill, and we were relieved that we were indeed only charged for one room. He asked if we needed anything, and the whole process was very quick.  It is an extended stay place, so don’t expect all the creature comforts of a boutique hotel. But if you want value, good staff and no frills, this fits the bill.More</t>
   </si>
   <si>
+    <t>dennis m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r286767568-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1240,6 +1363,9 @@
     <t>We have NEVER seen dirtier windows in any business or home...period. The windows in this facility likely have never been cleaned. It's sooo depressing to look outside given that on the side of our room, there is a really nice view of the mountains.The sink in the kitchenette has not been cleaned with a polishing cleanser for months...and again, maybe, it has never been cleaned with a kitchen sink cleanser. It looks like all that housekeeping does is rinse it and wipe it dry.The WiFi in this facility is the slowest we have ever seen...period. For an additional $4 a day, they offer highs speed internet but it does not come as a part of the standard package. This internet is so slow, they must spend a great deal of money slowing it down so far that you want to pay for upgrading to a faster speed.  This is such a low-handed marketing technique, it's almost laughable.Very nice friendly staff.More</t>
   </si>
   <si>
+    <t>Sandy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r286243404-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1264,6 +1390,9 @@
     <t>Hotel guests being arrested, fire alarm going off, overturned shopping cart and other trash in front of the entrance for two days. Floors in the common areas were dirty. Our bathroom needed major work. Tub was black. Needs to be reglazed, sink leaked, door didn't lock. Very dissatisfied.More</t>
   </si>
   <si>
+    <t>Thess B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r281184558-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1291,6 +1420,9 @@
     <t>I don't understand all the negative reviews.  I loved my time here.  The staff went out of their way to assist whenever I needed something.  But residents need to realize that this is not your usual hotel.  There are a lot of people living here long-term who have been displaced from their homes and/or jobs.  Yes, there were maintenance issues now and then.  The maintenance man fixed whatever I asked him to.  Yes, there were loud guests on weekends.  That's why the police supervise when necessary.  No, there is no pool or gym here.  Guests should already know that when they book their rooms or ask ahead of time.  I'm grateful this place even existed and am sorry to read the bad reviews.  If you're looking for the Ritz, then this is not the place for you.  Thanks, ESA YL staff, you were awesome!More</t>
   </si>
   <si>
+    <t>Sandee K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r278327653-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1315,6 +1447,9 @@
     <t>When we drove up to the hotel (at around 10pm) the ENTIRE place was dark, including the parking lot.  We thought it was closed, but then saw 2 police cars in the parking lot.  We went into the lobby anyway, which had lighting, and there was a lady at the desk.  When we told her about the lack of lights and police, she looked terrified, and ran out the back.  She came back in a couple of minutes and said everything was fine.  We soon found out that this was probably normal.   This seems to be a "flop house" for drug dealers, drug addicts and hookers.  We were exhausted having just come from a long wedding and reception, so we took the room anyway.  It was filthy and the whole place was scary.   Absolutely do not recommend.More</t>
   </si>
   <si>
+    <t>Photosude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r273128579-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1339,6 +1474,9 @@
     <t>We stay here every year for Lobsterfest in Yorba Linda, the 3rd Friday in May. Each year, it gets a little more tired. Our bed this year was a king sized box spring with no mattress and a queen sized mattress cover. Uncomfortable to say the least. The kitchenette is fine, but we never use it. The toilet let out a high pitched scream every time it was flushed. Room was a little dirty, which makes you think what is going on where I'm not looking? It really is not the place to stay.More</t>
   </si>
   <si>
+    <t>Jay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r251563809-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1366,6 +1504,9 @@
     <t>I just arrived, (1/28/2015, 10pm)and no one was at the front desk. The room was not very clean upon arrival. There was a white substance all over the door handle and door (inside). I shutter to even think about what is was, thank God for disinfectant wipes. The room thus far is functional. I am pretty sure I will not stay here on my next visit. Sorry for the negative feedback. More</t>
   </si>
   <si>
+    <t>Kadence L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r251193368-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1382,6 +1523,9 @@
   </si>
   <si>
     <t>This is my most favorite hotel to stay!The manager has her and the staff with great customer service skills! Making you feel comfortable and making your stay comfortable! Everything from cleanliness, to being attentive to needs for rooms are happily fulfilled! I would recommend this hotel I stay here about twice a month and have been very pleased!More</t>
+  </si>
+  <si>
+    <t>Laura N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r250651968-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1415,6 +1559,9 @@
  I...This property delivers outstanding guest service and Connie the manager is fantastic.  I have previously worked in the hospitality industry for about 10 years, which includes front desk employment at a major resort hotel involving a mouse in Anaheim, and can honestly say the quality of guest service here is phenomenal.  The staff made me feel welcome and I looked forward to interacting with them everyday. My husband and I stayed here already for about 30 days and will be staying here for another 30 days or more (60 days at least!)  Connie and the front desk staff are always welcoming, friendly, and always exceeded my guest requests when I asked for additional amenities (soap,coffee, packets, tissues,towels, cups) which I asked them for about everyday!  Even if they were out they still notified me when they could get it to me, which was always prompt and a short wait time.  Having a stove in the kitchen as well as the regular size refrigerator helped me out alot.  After traveling a lot and using only a mini refrigerator and microwave I was excited to be able have a real kitchen.  The front desk will have dishes, toasters, dish drying racks, coffee makers, cups and everything else for you.  Which is nice because if you don't need those items they aren't sitting on your counter cluttering up the space.  Just ask the front desk and they will kindly help you out. I really noticed was how fresh and clean the lobby and halls smelled.  I had a non smoking upper floor room and it smelled so fresh and smoke free. I am allergic to smoke so this was a plus for me not smelling any smoke at all.  After doing my own over the top housekeeping inspection of the room, I was impressed! SUPER CLEAN! One time during our stay, on a day when I wasn't supposed to have my room cleaned, they squeezed me in anyway and went above and beyond my expectations.  I love the housekeeping staff because they are always smiling, courteous and double check with me about my needs in regards to what needs extra attention on my cleaning day. I love the quick breakfast in the morning too.  I always get a fresh cup of coffee and get free fresh apples or oranges. I like the healthy oatmeal packets and fruit options instead of the usual sugar loaded pastries at other inns.  It's perfect because you literally grab and go- everything can be stuffed in your travel bag, purse, or briefcase on your way out the door. Even though I had a kitchen in my room, I sometimes didn't have time to cook my breakfast.  Knowing i could still have a healthy option downstairs appealed to me.  I liked their muffins and they have granola bars as well.  Truthfully I went down there a lot for breakfast so I could say hi to Connie at the front desk! She is a delight and brings a welcoming presence to lobby in the morning. If she isn't there, you will find another delightful smiling face behind the counter because everyone I encountered at the front desk is nice. All my guest questions and or complaints about noises or anything were handled, resolved promptly and efficiently. Rarely did I have a concern, but when I did the front desk staff took care of it. Another thing to mention is they have FREE WIFI HOORAY!!I liked the fact that the location where this property is located is fairly quiet (people wise.) This property was so quiet that while staying here during New Years Eve you could hear a pin drop. No parties or loud incidents in the parking lot. It was super quiet.  I also love the fact that this property is within the Savi Ranch shopping center and around the corner to a Sprouts market.   I can walk to all the stores and restaurants safely. Very convenient!I will say that after staying at another Extended Stay America down the street and experiencing a not so great experience there, I was hesitant to book a room at another ESA location. Let me tell you, this property helped change our minds! We love this place and look forward to staying here.More</t>
   </si>
   <si>
+    <t>Extendedstaygrreat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r243479605-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1439,6 +1586,9 @@
     <t>The staff at this Extended Stay is excellent. The location is great. You have many big box retailers, places to eat along with movie theaters very close by. The location is quiet and safe and provides for easy access to the freeway. Parking is always available and the hotel is clean along with friendly guests. Highly recommended.More</t>
   </si>
   <si>
+    <t>ptrojas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r240676736-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1464,6 +1614,9 @@
   </si>
   <si>
     <t>Having stayed twice at the Yorba Linda site, I am amazed at the quality of professional and courteous service received from the staff.  They really "extend" themselves in responding to my questions or requests.  I have been very pleased with the cleanliness and amenities of both  rooms I booked.  Even though its located off the 91 freeway, the traffic sounds are negligible.I am planning to stay there again in two weeks !More</t>
+  </si>
+  <si>
+    <t>David G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r239900012-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1496,6 +1649,9 @@
 We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess...Having only stayed at an Extended Stay once, back in October of 2013 over in Phoenix, AZ. I had a bad impression going into my stay. The bad reviews on top of the now distant memories of mold, clogged sinks, and hard beds really had my expectations low on what to expect. In fact, I only chose this location because due to my bad experience I had a free night voucher I had to use up. I went here because I was in town for a concert at The House Of Blues, and decided to make three nights of it. When we pulled up we (fiance and I) were a bit upset about the parking. It was 7PM and we had to park all the way in the back. But that is really where the complaints end.I checked it, and the lady who checked me in was so friendly and polite. She put me in room 217, gave me my kitchen package (which you need to ask for if you want dishes, and things to cook with), two keys and said if I needed anything more to come down and ask. I went to my room, did a quick look around and then went back to my car to unload.We quickly noticed while we had plates and silverwear we didnt have pots or pans. We also noticed that the king bed only came with 4 pillows. I guess 4 is enough for most people, but I'm just accustomed to sleeping with 3, and so is my fiance. So on our way to dinner we asked if we could have 2 more pillows and a pot and pan. Both these requests were responded to with a smile and didn't take more than a few minutes. The room was perfect. I am 5'11" and was able to lay in the bathtub to take an actual bath with out my legs being bent. There was no mold unlike the last location I went to. When we cooked in the kitchen it did produce a little bit of a smokey haze, but once we opened the window it seemed to fix it.  The bed was a little firm, and we noticed it had a mattress topper on it, but it was not overly firm to the point where you could not sleep well. I am now planning on coming back to this specific location in March to celebrate my birthday, they have won me over as a customer at this location.More</t>
   </si>
   <si>
+    <t>Colby4la</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r238754675-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1520,6 +1676,9 @@
     <t>This hotel is very centrally located and you are able to get to all the major attractions like Disney land  Knotts berry farm Angeles stadium and the beaches. The room was very clean and well put together. The bed was ok. The staff was very prompt to our requests.  More</t>
   </si>
   <si>
+    <t>sandipatter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r235446906-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1547,6 +1706,9 @@
     <t>We relocated from Maine to Southern California. We have 2 kitties and 1 dog (dachshund). It is not easy travelling with pets but the extended stay was very accommodating -- courteous, friendly, helpful. Check in was seamless. One time there were not enough clean towels for exchange so they brought clean ones to the room. Always smiled ... I think they may appreciate what it is to travel with pets ... at least it felt like it.More</t>
   </si>
   <si>
+    <t>DoubleRNSquared</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r235366426-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1560,6 +1722,9 @@
   </si>
   <si>
     <t>I will never make this mistake again. As a non-smoker and parent to 2 small children,, sleeping in a room where the smoke has been sitting is vile. They told us that it was "Priceline" who requested the smoking room. They had no other availability so unfortunately it was up to my family to deal with it. The bathroom was not clean - some buildup around the toilet. Ew. Housekeeping is non-existent and in order to receive new towels - you must turn your original ones at the front desk. We asked for shampoo as it was not offered in room - they said that 2 was our maximum for the length of our stay. Although I believe the staff was just following orders, this was all around a bad experience. I deeply regret assuming that a 2.5 star (which is my usual) was going to leave this monstrosity out. Not impressed in the least bit. Another advisor said it perfectly "if you aren't so desperate to save $20 a night, the perks are well worth taking your money elsewhere".More</t>
+  </si>
+  <si>
+    <t>mike-in-bako</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r218355302-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1613,6 +1778,9 @@
 In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might...I booked an overnight express deal off Priceline for this place.  Although my stay was uneventful, I still felt compelled to post the following comments.What was satisfactory:1. WiFi was decent and free.2. Location was right off the 91 freeway and near lots of shopping and restaurants.3. Very quiet and secluded.4. The clerk at the front desk was courteous and able to track down and return some items that I had left behind when I checked out.What needs improvement or should be considered a negative:1. The kitchen was not equipped with any utensils or plates.  Why bother having a kitchen then?  Having to bring my own kitchen or track down something at the front desk is a pain.2. Priceline suggesting that this place had a free breakfast is a joke.  They literally have a cart with coffee, muffins out of the fridge and fruit you wouldn't buy at a store.3. ESAs generally lack sufficient staffing, particularly for maintenance and upkeep.  My room, in particular, had an ant problem.  The towels weren't exactly the cleanest I've ever seen either.  The pictures posted by other guests were not exaggerations. 4. The mattress felt and sounded more like a box spring. 5. Not exactly close to any attractions or points of interest.In summary, if you need a place to crash with literally no amenities and saving $20 to $40 is critical then you might consider this place.  If it were me, I'd call that money well spent on a few extra perks.More</t>
   </si>
   <si>
+    <t>npaul22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r218290739-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1632,6 +1800,9 @@
   </si>
   <si>
     <t>my family booked a standard room through priceline.com.  We checked in and there was no mention of a smoking room.  We got off the elevator on the 4th floor and immediately noticed a power smell of smoke.  We walked in our room and noticed that we were placed in a smoking room - the smell was overwhelming.  we went down to the front desk and they told us that since we booked on priceline.com our rate was for a smoking room.  we called priceline to tell them and they said our reservation was not for a smoking room, but that there was nothing they coulld/would do about it.  In addition to the hotel room being smokey, the popcorn ceilings were stained yellow/brown from the smoke -- the hotel looks nice from the outside, but our room was dated.  Do not stay hear unless you need a smoking room.More</t>
+  </si>
+  <si>
+    <t>briwood4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r215375131-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -1666,6 +1837,9 @@
 When...I had a week's business in Corona, CA, and my brother put me up at the ESA - Yorba Linda as it is located on the same exit as his home in YL. I'm a road warrior for many years, so I've stayed in a lot of hotels, both high end and not so much. The ESA YL was OK, but disappointing. Let em explain...First, you pay for the number of nights you are staying up front. That's ok, but be prepared. I had originally set it up for a 5 night stay, but upon my registration, I told them it would be three nights only, and I paid in full for the three nights. I just checked my Amex bill, and I have been charged another approx $100 for something I can't figure out because I can't get them on the phone. As I'm typing this, I've been on hold for 26:40 minutes/seconds asking me to patiently wait for there pick up of my call "shortly". I will let you know what my total wait time is when I complete writing this.OK, it's a very modest registration area, so be prepared. I go to my room (325) and it's a double bed, small kitchenette and bathroom. It appears clean, but it is definitely aged. The TV is small, and the channel clarity reception is below average -- a general fuzziness of poor reception quality. Be prepared.When I turn down the bed covers, there is a nice little stain right in the middle of the fitted sheet. Now, I will tell you that it ended up not being anything that concerned me for cleanliness purposes -- it was a cleaning or ink stain or some other stain that just made it an unsightly first impression of the bedding. The beds and pillows are ok, but not particularly comfortable, so an extended stay would be troublesome to me. Be prepared.The bathroom is modest as well, and also aged like everything else. The towels were thin and scratchy, which just doesn't contribute to a good stay. Again, if on an extended stay. Be prepared. When I came back to my room the next day after a day of work, my room was in the condition I left it -- bed unmade, towels askew. When I went to dinner, I stopped by the front desk and asked them about it. I was told housekeeping comes by weekly, but that I could exchange towels whenever I wanted. Again, I get it -- save costs and reduce prices to consumers, but i wasn't aware of it.  So, be prepared.  I asked about a workout room, and was told they had none at this location. Be prepared.Btw, I'm on 43 minutes and holding still! Why are the Guest Relations people so busy??  Makes you wonder.I actually ended up checking out of my room before the evening of my second night there, so I spent only one night. My brother's couch in a nice home became a much more acceptable arrangement for me, so I took it.  I'm disappointed my stay at ESA YL turned out as it did. I write this so future guests can be prepared for what they will encounter. That place needs some investment dollars for updating and general guest services.More</t>
   </si>
   <si>
+    <t>txangelique</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r205378715-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1693,6 +1867,9 @@
     <t>Nice hotel clean and quiet pretty much have everything you need;only have one complaint about the shower when you raise the shower lever most of the water still comes out of the bottom,but other than that i would stay here again.More</t>
   </si>
   <si>
+    <t>varoom39m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r200879994-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1711,6 +1888,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r199096859-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1738,6 +1918,9 @@
     <t>What I like. Nice size room, full kitchen with counters, good price, nice recliner. What is lacking: NO PLACE to put even one piece of luggage, extremely slow wifi, you'll probably want to sign up for the $14.99 weekly upgrade, which unfortunately is PER DEVICE! And, the 'upgraded' wifi isn't much better! This chain does not provide amenities you're used to at other chains, including comparably priced extended stay chains like Candlewood Suites, NO:  Bath toiletries (one bar of soap provided, that's it), no kleenix, decent speed wifi, folding luggage cart, pad/pen.I asked for someone to look at my TV as several stations come in poorly, really unwatchable. When I got back that evening the problem persisted. I called front desk and they said it was going to be repaired the next morning. When that happened, they said problem was with reception, not the TV. OK, isn't it time to change your provider then. I won't be here again, just booked the Candlewood Suites in Garden Grove for my upcoming stay. Too bad, this place is closer for me.No fitness room.More</t>
   </si>
   <si>
+    <t>sandiwashere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r194157492-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1762,6 +1945,9 @@
     <t>This hotel is an exceptional value. No fuss check in was handled in a very professional friendly way. Relocating has been very stressful but no stress when it comes to having home away from home here. They make everything can be nient on site laundry to once a week made service. Even in the best hotels it's irritating having housekeeping banging on your door early or worse while trying to check out. Not here though. You are treated like it was your very own apartment. I can't believe for this price you can even set up your own voicemail on the telephone. Also any amenities that you need or maybe forgot are free at the front desk. I am really over the moon regarding the hospitality the friendly staff and the value!More</t>
   </si>
   <si>
+    <t>Porkchop187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r193918633-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1786,6 +1972,9 @@
     <t>This was my second stay at the Extended Stay America, Yorba Linda location, within the last 4 months. Each stay was about 5 weeks, so I got to know the staff and daily workings of the hotel fairly well. I can not say enough positive things about the friendliness and courteousness of the entire staff. The rooms are very clean and comfortable. They also accept pets, which is becoming more and more difficult to find, especially at an affordable yet clean place. I would not hesitate to stay here again, and would recommend this hotel to anyone. More</t>
   </si>
   <si>
+    <t>DCSlick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r189935013-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1807,6 +1996,9 @@
     <t>We checked into the Extended Stay on New years Eve. As we had Priclined the room, we were given a 1 queen bed, smoking room. The room smelled HORRIBLE of smoke. With an asthmatic daughter, it was not good. After requesting a new room of at all possible from the man on duty, we were told there was nothing available. We went to dinner and came back. Celia was then on duty and did everything she could to find us a new room. She was fabulous and saved the night! The room was ordinary but comfortable enough, but more importantly, it did not smell like smoke! After we checked out and headed to Disneyland, we discovered my daughters beloved baby blanket she had since birth (she is 8) was missing. We called the hotel 3 different times and were told it was not there. Today I called again and spoke with the manager Ruby. She said she would look for it. An hour later she called me back and had found the blanket! We are very grateful and glad she took the time to find something important for us! So, overall the hotel was nothing special, but some of the staff were!More</t>
   </si>
   <si>
+    <t>Picadolfali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r175763775-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1822,6 +2014,9 @@
     <t xml:space="preserve">We would have chosen the Ayers Hotel next door, had we realized the "guests" you are housing on the fourth floor. There would have been no point complaining to the manager, given we had already paid and that you really wouldn't have been able to  fix this issue.  Other than that, the rooms are mediocre. We almost got what we paid for. Needless to say, we won't be back. </t>
   </si>
   <si>
+    <t>Lillian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r175564342-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1840,6 +2035,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Frank-Money</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r172558075-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1858,6 +2056,9 @@
     <t>My stay started out rough with a room on the top floor, all the way at the end of the hall, with a small bed, and a room that was smokey. Luckily, when we complained of the smokiness, they moved us into a 1st floor room with a king bed right near the entrance, at no additional charge of course. That is the type of service I expect when I stay in hotels!The rooms were modern and clean. Nothing fancy at all, but the room was everything one would need for a basic, short stay. I was impressed by the kitchen and full-sized fridge, not that I needed any of that.More</t>
   </si>
   <si>
+    <t>MBR06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r167440879-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1876,6 +2077,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Vanessa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r166994501-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1894,6 +2098,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Mark C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r166841575-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1912,6 +2119,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>mendoza22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r158425203-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1936,6 +2146,9 @@
     <t>This location was very clean and had an excellent staff, the rooms were well kept up and we had a pleasant stay. The freeway access and location is perfectly placed with multiple stores and restaurants in walking distance. Will defiantly be back for another stay in the future, thanks again for going out of your way and making my stay perfect.More</t>
   </si>
   <si>
+    <t>Homeward_Bound_Vet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r154917535-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1963,6 +2176,9 @@
     <t>I read the other experiences and wonder if I stayed where they had. I was told my third party booking was a reason to expect less of a room; I was booked in a smoking room when I thought this was a non smoking hotel. The fridge was busted and some of our food spoiled. The bed was very hard and my back is hurting. Neighbors were constantly noisy and I complained three different nights; once at 3:00 am. Room smelled of cigerettes. I was told by staff this was due too vetilation and other rooms near being smoking rooms. Breakfast was very limited if not missing. Stayed at extended stay in Boise a week prior and it was about the opposite of this one.More</t>
   </si>
   <si>
+    <t>Kalani L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r152231142-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -1990,6 +2206,9 @@
     <t>I have stayed here multiple times now in the past two years. Sometimes a couple days, sometimes 2 weeks. No matter what time of the year or week, the hotel is always very clean and the great staff always willing to help and make your stay...Comfy &amp; Happy. This location sits right off 91 frwy, so access to Orange, Riverside and LA countys, is your oyster! Location has good parking at "no charge" and close to hotel. WiFi works great and also is "No charge". Room charges very reasonable for Orange County and the area! Great quick breakfast also available in the lobby, at "no Charge"...this too is a great little perk. Great coffee!  Restaurants, fast food and shopping within walking distance. Which is great.This location has kinda become my home away from home. Connie is great and any issues I have during my stay, faxing, printing, new towels,TP,, almost anything,,, she is always helps me and my college age son(Reason for visits) with a smile! All staff is great,,they have become my O'hana while away from my home in Hawaii. Mahalo ESA - Yorba Linda! See you again Soon!More</t>
   </si>
   <si>
+    <t>Labbymom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r146655990-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2017,6 +2236,9 @@
     <t>As an extended stay hotel, I assumed they would supply bathroom products like shampoo...not only no shampoo but no hair dryer either. I had to go to the front desk &amp; request these items. A friend stayed in another room &amp; had the same problem.  The room was clean but other than that, I can't say anything positive about my stay. There is another hotel just up the street...stay there &amp; avoid this hotel. More</t>
   </si>
   <si>
+    <t>Kayasc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r142925701-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2041,6 +2263,9 @@
     <t>Stayed here this past weekend with a friend, and boy were we disappointed!! Everything looked very nice from the outside, lobby looks great, but that was where it ended. There was only one guy helping guests with their needs in the lobby, took far too long to check in. We were told our room STILL wasn't ready even though it was 45 minutes past 3, which was our designated check in time. No where on the site we booked from said anything about pets being allowed, and on top of that, the entire hotel ABSOLUTELY REEKS of stale cigarettes (when it stated on the website the hotel is non-smoking!!!) It is absolutely the most disgusting thing I've ever encountered. Days later and the smell is still burned into my nose. On the plus side the staff was generally quite friendly and the maid service spoke great English and were very pleasant. Beds were fairly firm, but obviously for the price I didn't expect anything luxury.Overall very disappointed with this hotel and would not advise anyone to stay here.More</t>
   </si>
   <si>
+    <t>Jeff G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r140602724-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2068,6 +2293,9 @@
     <t>I needed a place to say with my family (four total) in Yorba Linda, CA, and came across this place.  While the location was just right, our stay ended up not being worth it.  This might be a good option for people who want to stay for longer periods of time, as the hotel name indicates.  But for one night, not so much.  We were awoken in the middle of the night by our next door neighbor's large dog, barking for some reason, followed by their calling of the dog to be quiet.  This was followed by what sounded like a very large person in the room directly above us, who walked on the floor so loudly, I felt as though he might just come through it.  Lastly, the front desk staff left a little to be desired.  All in all not physically a bad place, but I'd never go back.  Stay in a place more suited for the travel you need....a lesson that I learned.More</t>
   </si>
   <si>
+    <t>mrsanderson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r132858590-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2095,6 +2323,9 @@
     <t>We booked this last minute to be close to the Nixon library. The check in was efficient and location close to the 91 fwy.  I was a little unnerved that the back door kept getting proped open even after I closed it....just a security concern.  Room was clean and kitchen was nice although it was set up for 2 guests while our room had 2 double beds. Didn't use the cooking facilities so didn't bother asking for extra set-ups.  Breakfast was "grab and go" including muffins, oatmeal, coffee, juice and bananas.  Lots of parking...would accommodate trailers or RVs.More</t>
   </si>
   <si>
+    <t>Jrchmnd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r129272623-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2113,6 +2344,9 @@
     <t>WOW, WOW, WOW! The turn around of this property has left me jaw dropped. Everything is so clean and brand new. They even have free wifi and free breakfast! The coffee is DELICIOUS. The staff works hard to accommodate you as best as possible. You never get a no from them. They literally go the extra mile to make the impossible become possible. The manager Christine is very nice with a wonderful sense of humor. The young lady that checked in, Stephanie, has such a lovely smile. She has an amazing personality through the phone as she does in person. These ladies among with everyone else never stop smiling. For the price and service I received here, I wills definetly be back off business.More</t>
   </si>
   <si>
+    <t>KTY_23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r128609358-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2134,6 +2368,9 @@
     <t>Had a great stay here. They have remodeled the hotel since my lats visit and it looks great. Comfortable beds, clean rooms, nice new look. The staff at the Extended Stay Yorba Linda was very helpful Christine, Stephanie and the rest of the front desk staff were very accommodating and go the extra mile to insure you enjoy your stay. I will absolutely stay here again, great experience thanks guys!More</t>
   </si>
   <si>
+    <t>lolo420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r126571854-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
   </si>
   <si>
@@ -2150,6 +2387,9 @@
   </si>
   <si>
     <t>My car was broken into here and since i was between moving from cross country practically all my belongings worth over 2k were stolen.They said the insurance company would be contacting me within a few days and its been a week still no call!!I talked to another lady there that also had her car broken into and apparently this happens a lot at this location.I am still patiently waiting for the insurance company to call since the front desk clerk wouldnt give me any info on how to reach the insurance dept when i called.Horrible expeirance!!!the hotel itself is fairly nice with clean rooms but the way they handled my situation is not coolMore</t>
+  </si>
+  <si>
+    <t>Joshi C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33298-d275533-r126542516-Extended_Stay_America_Orange_County_Yorba_Linda-Yorba_Linda_California.html</t>
@@ -2666,43 +2906,47 @@
       <c r="A2" t="n">
         <v>47281</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>57336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2714,56 +2958,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47281</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146766</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2783,56 +3031,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47281</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2848,56 +3100,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47281</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>7283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2919,56 +3175,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47281</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146767</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2990,56 +3250,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47281</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146768</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
         <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3061,56 +3325,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>47281</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3132,56 +3400,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>47281</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146770</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3193,56 +3465,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>47281</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146771</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3264,56 +3540,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47281</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3335,56 +3615,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>47281</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146772</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3406,56 +3690,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>47281</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146773</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3477,56 +3765,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>47281</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146774</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3548,56 +3840,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>47281</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3619,56 +3915,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>47281</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3690,56 +3990,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>47281</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3761,56 +4065,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>47281</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146775</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3832,56 +4140,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>47281</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146776</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3903,56 +4215,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>47281</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146777</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3964,56 +4280,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>47281</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146778</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4029,56 +4349,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>47281</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146779</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4094,56 +4418,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>47281</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146780</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4155,56 +4483,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>47281</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4222,56 +4554,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>47281</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146782</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4283,56 +4619,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>47281</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146783</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4344,56 +4684,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>47281</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>105732</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4411,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>47281</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146784</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4478,56 +4826,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>47281</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>12606</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4539,56 +4891,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="X29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>47281</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4600,56 +4956,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>47281</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146786</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4661,56 +5021,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="X31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>47281</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146787</v>
+      </c>
+      <c r="C32" t="s">
+        <v>335</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="K32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="L32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4722,56 +5086,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="X32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="Y32" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>47281</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>30468</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="J33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="K33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="L33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4783,56 +5151,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>47281</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146788</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4844,56 +5216,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>47281</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146789</v>
+      </c>
+      <c r="C35" t="s">
+        <v>364</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4905,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="X35" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="Y35" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>47281</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146790</v>
+      </c>
+      <c r="C36" t="s">
+        <v>374</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4972,56 +5352,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="X36" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="Y36" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>47281</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146791</v>
+      </c>
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="L37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="O37" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5033,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="X37" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="Y37" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>47281</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146792</v>
+      </c>
+      <c r="C38" t="s">
+        <v>393</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5100,56 +5488,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>47281</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146793</v>
+      </c>
+      <c r="C39" t="s">
+        <v>403</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="O39" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5161,56 +5553,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="X39" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="Y39" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>47281</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>25111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>413</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="J40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="K40" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="L40" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5226,56 +5622,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X40" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>47281</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146794</v>
+      </c>
+      <c r="C41" t="s">
+        <v>422</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5291,56 +5691,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="X41" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="Y41" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>47281</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146795</v>
+      </c>
+      <c r="C42" t="s">
+        <v>432</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="J42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="L42" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5356,56 +5760,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="X42" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="Y42" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>47281</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>22931</v>
+      </c>
+      <c r="C43" t="s">
+        <v>441</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="J43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="K43" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="L43" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5421,56 +5829,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="X43" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y43" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>47281</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146796</v>
+      </c>
+      <c r="C44" t="s">
+        <v>450</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="J44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="K44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="L44" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5482,56 +5894,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="X44" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="Y44" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>47281</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146797</v>
+      </c>
+      <c r="C45" t="s">
+        <v>460</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="J45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="K45" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="L45" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="O45" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5549,56 +5965,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="X45" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="Y45" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>47281</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146798</v>
+      </c>
+      <c r="C46" t="s">
+        <v>469</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="J46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="K46" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="L46" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="O46" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5614,56 +6034,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="X46" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="Y46" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>47281</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7363</v>
+      </c>
+      <c r="C47" t="s">
+        <v>478</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="J47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="L47" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5675,47 +6099,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="X47" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Y47" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47281</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146799</v>
+      </c>
+      <c r="C48" t="s">
+        <v>488</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="K48" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="L48" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5742,56 +6170,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="X48" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="Y48" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>47281</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>18766</v>
+      </c>
+      <c r="C49" t="s">
+        <v>495</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="J49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="K49" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="L49" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="O49" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5809,47 +6241,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="X49" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="Y49" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47281</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146800</v>
+      </c>
+      <c r="C50" t="s">
+        <v>505</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="J50" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="K50" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="L50" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5876,56 +6312,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="X50" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="Y50" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>47281</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146801</v>
+      </c>
+      <c r="C51" t="s">
+        <v>514</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="J51" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="K51" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="L51" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="O51" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5943,56 +6383,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="X51" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="Y51" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>47281</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>524</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="J52" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="K52" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="L52" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="O52" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6014,47 +6458,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="X52" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="Y52" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>47281</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146802</v>
+      </c>
+      <c r="C53" t="s">
+        <v>533</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="J53" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="K53" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="L53" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -6081,56 +6529,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="X53" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="Y53" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>47281</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146803</v>
+      </c>
+      <c r="C54" t="s">
+        <v>542</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="J54" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="K54" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="L54" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="O54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6148,47 +6600,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="X54" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="Y54" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>47281</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146804</v>
+      </c>
+      <c r="C55" t="s">
+        <v>552</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="J55" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="K55" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="L55" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
@@ -6215,56 +6671,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="X55" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="Y55" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>47281</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146805</v>
+      </c>
+      <c r="C56" t="s">
+        <v>558</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="J56" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="K56" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="L56" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="O56" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6282,56 +6742,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="X56" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="Y56" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>47281</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146806</v>
+      </c>
+      <c r="C57" t="s">
+        <v>568</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="J57" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="K57" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="L57" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6349,56 +6813,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="X57" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="Y57" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>47281</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>91247</v>
+      </c>
+      <c r="C58" t="s">
+        <v>576</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="J58" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="K58" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="L58" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="O58" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6416,56 +6884,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="X58" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="Y58" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>47281</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146807</v>
+      </c>
+      <c r="C59" t="s">
+        <v>585</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="J59" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="K59" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="L59" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="O59" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6487,56 +6959,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="X59" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="Y59" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>47281</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146808</v>
+      </c>
+      <c r="C60" t="s">
+        <v>595</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="J60" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="K60" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="L60" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6560,50 +7036,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>47281</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146809</v>
+      </c>
+      <c r="C61" t="s">
+        <v>602</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="J61" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="K61" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="L61" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="O61" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6625,47 +7105,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="X61" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="Y61" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>47281</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146810</v>
+      </c>
+      <c r="C62" t="s">
+        <v>612</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="J62" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="K62" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="L62" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
@@ -6692,47 +7176,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="X62" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="Y62" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>47281</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146811</v>
+      </c>
+      <c r="C63" t="s">
+        <v>621</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="J63" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="K63" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="L63" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6759,56 +7247,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="X63" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="Y63" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>47281</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146812</v>
+      </c>
+      <c r="C64" t="s">
+        <v>630</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="J64" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="K64" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="L64" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6830,41 +7322,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>47281</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146813</v>
+      </c>
+      <c r="C65" t="s">
+        <v>638</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="J65" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="K65" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="L65" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -6893,50 +7389,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>47281</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>115183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>644</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="J66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="K66" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="L66" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="O66" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6960,50 +7460,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>47281</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146814</v>
+      </c>
+      <c r="C67" t="s">
+        <v>651</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="J67" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="K67" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="L67" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="O67" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7027,50 +7531,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>47281</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146815</v>
+      </c>
+      <c r="C68" t="s">
+        <v>658</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="J68" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="K68" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="L68" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="O68" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7094,50 +7602,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>47281</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>10388</v>
+      </c>
+      <c r="C69" t="s">
+        <v>665</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="J69" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="K69" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="L69" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7161,50 +7673,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>47281</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>973</v>
+      </c>
+      <c r="C70" t="s">
+        <v>672</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J70" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="K70" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="L70" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7228,41 +7744,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>47281</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146816</v>
+      </c>
+      <c r="C71" t="s">
+        <v>679</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="J71" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="K71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="L71" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7289,56 +7809,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="X71" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="Y71" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>47281</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146817</v>
+      </c>
+      <c r="C72" t="s">
+        <v>688</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="J72" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="K72" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="L72" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7360,56 +7884,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="X72" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="Y72" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>47281</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146818</v>
+      </c>
+      <c r="C73" t="s">
+        <v>698</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="J73" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="K73" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="L73" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7431,56 +7959,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="X73" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="Y73" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>47281</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146819</v>
+      </c>
+      <c r="C74" t="s">
+        <v>708</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="J74" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="K74" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="L74" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7492,47 +8024,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="X74" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="Y74" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>47281</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146820</v>
+      </c>
+      <c r="C75" t="s">
+        <v>718</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="J75" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="K75" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="L75" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
@@ -7559,56 +8095,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="X75" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="Y75" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>47281</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C76" t="s">
+        <v>727</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="J76" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="K76" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="L76" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7630,56 +8170,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="X76" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="Y76" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>47281</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146821</v>
+      </c>
+      <c r="C77" t="s">
+        <v>737</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="J77" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="K77" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="L77" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7691,47 +8235,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="X77" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Y77" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>47281</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146822</v>
+      </c>
+      <c r="C78" t="s">
+        <v>747</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="J78" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="K78" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="L78" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7758,56 +8306,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="X78" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Y78" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>47281</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146823</v>
+      </c>
+      <c r="C79" t="s">
+        <v>754</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="J79" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="K79" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="L79" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7829,56 +8381,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="X79" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Y79" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>47281</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146824</v>
+      </c>
+      <c r="C80" t="s">
+        <v>762</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="J80" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="K80" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="L80" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -7902,50 +8458,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>47281</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146825</v>
+      </c>
+      <c r="C81" t="s">
+        <v>769</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="J81" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="K81" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="L81" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7969,7 +8529,7 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_277.xlsx
@@ -2972,7 +2972,7 @@
         <v>47281</v>
       </c>
       <c r="B3" t="n">
-        <v>146766</v>
+        <v>178121</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3189,7 +3189,7 @@
         <v>47281</v>
       </c>
       <c r="B6" t="n">
-        <v>146767</v>
+        <v>178122</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -3264,7 +3264,7 @@
         <v>47281</v>
       </c>
       <c r="B7" t="n">
-        <v>146768</v>
+        <v>178123</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3339,7 +3339,7 @@
         <v>47281</v>
       </c>
       <c r="B8" t="n">
-        <v>146769</v>
+        <v>178124</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -3414,7 +3414,7 @@
         <v>47281</v>
       </c>
       <c r="B9" t="n">
-        <v>146770</v>
+        <v>178125</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -3479,7 +3479,7 @@
         <v>47281</v>
       </c>
       <c r="B10" t="n">
-        <v>146771</v>
+        <v>178126</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
@@ -3629,7 +3629,7 @@
         <v>47281</v>
       </c>
       <c r="B12" t="n">
-        <v>146772</v>
+        <v>178127</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -3704,7 +3704,7 @@
         <v>47281</v>
       </c>
       <c r="B13" t="n">
-        <v>146773</v>
+        <v>178128</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -3779,7 +3779,7 @@
         <v>47281</v>
       </c>
       <c r="B14" t="n">
-        <v>146774</v>
+        <v>178129</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -4079,7 +4079,7 @@
         <v>47281</v>
       </c>
       <c r="B18" t="n">
-        <v>146775</v>
+        <v>178130</v>
       </c>
       <c r="C18" t="s">
         <v>201</v>
@@ -4154,7 +4154,7 @@
         <v>47281</v>
       </c>
       <c r="B19" t="n">
-        <v>146776</v>
+        <v>178131</v>
       </c>
       <c r="C19" t="s">
         <v>210</v>
@@ -4229,7 +4229,7 @@
         <v>47281</v>
       </c>
       <c r="B20" t="n">
-        <v>146777</v>
+        <v>178132</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -4294,7 +4294,7 @@
         <v>47281</v>
       </c>
       <c r="B21" t="n">
-        <v>146778</v>
+        <v>178133</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -4363,7 +4363,7 @@
         <v>47281</v>
       </c>
       <c r="B22" t="n">
-        <v>146779</v>
+        <v>178134</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -4432,7 +4432,7 @@
         <v>47281</v>
       </c>
       <c r="B23" t="n">
-        <v>146780</v>
+        <v>178135</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -4497,7 +4497,7 @@
         <v>47281</v>
       </c>
       <c r="B24" t="n">
-        <v>146781</v>
+        <v>178136</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -4568,7 +4568,7 @@
         <v>47281</v>
       </c>
       <c r="B25" t="n">
-        <v>146782</v>
+        <v>178137</v>
       </c>
       <c r="C25" t="s">
         <v>267</v>
@@ -4633,7 +4633,7 @@
         <v>47281</v>
       </c>
       <c r="B26" t="n">
-        <v>146783</v>
+        <v>178138</v>
       </c>
       <c r="C26" t="s">
         <v>277</v>
@@ -4769,7 +4769,7 @@
         <v>47281</v>
       </c>
       <c r="B28" t="n">
-        <v>146784</v>
+        <v>178139</v>
       </c>
       <c r="C28" t="s">
         <v>297</v>
@@ -4905,7 +4905,7 @@
         <v>47281</v>
       </c>
       <c r="B30" t="n">
-        <v>146785</v>
+        <v>178140</v>
       </c>
       <c r="C30" t="s">
         <v>316</v>
@@ -4970,7 +4970,7 @@
         <v>47281</v>
       </c>
       <c r="B31" t="n">
-        <v>146786</v>
+        <v>178141</v>
       </c>
       <c r="C31" t="s">
         <v>325</v>
@@ -5035,7 +5035,7 @@
         <v>47281</v>
       </c>
       <c r="B32" t="n">
-        <v>146787</v>
+        <v>178142</v>
       </c>
       <c r="C32" t="s">
         <v>335</v>
@@ -5165,7 +5165,7 @@
         <v>47281</v>
       </c>
       <c r="B34" t="n">
-        <v>146788</v>
+        <v>178143</v>
       </c>
       <c r="C34" t="s">
         <v>354</v>
@@ -5230,7 +5230,7 @@
         <v>47281</v>
       </c>
       <c r="B35" t="n">
-        <v>146789</v>
+        <v>178144</v>
       </c>
       <c r="C35" t="s">
         <v>364</v>
@@ -5295,7 +5295,7 @@
         <v>47281</v>
       </c>
       <c r="B36" t="n">
-        <v>146790</v>
+        <v>178145</v>
       </c>
       <c r="C36" t="s">
         <v>374</v>
@@ -5366,7 +5366,7 @@
         <v>47281</v>
       </c>
       <c r="B37" t="n">
-        <v>146791</v>
+        <v>178146</v>
       </c>
       <c r="C37" t="s">
         <v>383</v>
@@ -5431,7 +5431,7 @@
         <v>47281</v>
       </c>
       <c r="B38" t="n">
-        <v>146792</v>
+        <v>178147</v>
       </c>
       <c r="C38" t="s">
         <v>393</v>
@@ -5502,7 +5502,7 @@
         <v>47281</v>
       </c>
       <c r="B39" t="n">
-        <v>146793</v>
+        <v>178148</v>
       </c>
       <c r="C39" t="s">
         <v>403</v>
@@ -5636,7 +5636,7 @@
         <v>47281</v>
       </c>
       <c r="B41" t="n">
-        <v>146794</v>
+        <v>178149</v>
       </c>
       <c r="C41" t="s">
         <v>422</v>
@@ -5705,7 +5705,7 @@
         <v>47281</v>
       </c>
       <c r="B42" t="n">
-        <v>146795</v>
+        <v>178150</v>
       </c>
       <c r="C42" t="s">
         <v>432</v>
@@ -5843,7 +5843,7 @@
         <v>47281</v>
       </c>
       <c r="B44" t="n">
-        <v>146796</v>
+        <v>178151</v>
       </c>
       <c r="C44" t="s">
         <v>450</v>
@@ -5908,7 +5908,7 @@
         <v>47281</v>
       </c>
       <c r="B45" t="n">
-        <v>146797</v>
+        <v>178152</v>
       </c>
       <c r="C45" t="s">
         <v>460</v>
@@ -5979,7 +5979,7 @@
         <v>47281</v>
       </c>
       <c r="B46" t="n">
-        <v>146798</v>
+        <v>178153</v>
       </c>
       <c r="C46" t="s">
         <v>469</v>
@@ -6113,7 +6113,7 @@
         <v>47281</v>
       </c>
       <c r="B48" t="n">
-        <v>146799</v>
+        <v>178154</v>
       </c>
       <c r="C48" t="s">
         <v>488</v>
@@ -6255,7 +6255,7 @@
         <v>47281</v>
       </c>
       <c r="B50" t="n">
-        <v>146800</v>
+        <v>178155</v>
       </c>
       <c r="C50" t="s">
         <v>505</v>
@@ -6326,7 +6326,7 @@
         <v>47281</v>
       </c>
       <c r="B51" t="n">
-        <v>146801</v>
+        <v>178156</v>
       </c>
       <c r="C51" t="s">
         <v>514</v>
@@ -6472,7 +6472,7 @@
         <v>47281</v>
       </c>
       <c r="B53" t="n">
-        <v>146802</v>
+        <v>178157</v>
       </c>
       <c r="C53" t="s">
         <v>533</v>
@@ -6543,7 +6543,7 @@
         <v>47281</v>
       </c>
       <c r="B54" t="n">
-        <v>146803</v>
+        <v>178158</v>
       </c>
       <c r="C54" t="s">
         <v>542</v>
@@ -6614,7 +6614,7 @@
         <v>47281</v>
       </c>
       <c r="B55" t="n">
-        <v>146804</v>
+        <v>178159</v>
       </c>
       <c r="C55" t="s">
         <v>552</v>
@@ -6685,7 +6685,7 @@
         <v>47281</v>
       </c>
       <c r="B56" t="n">
-        <v>146805</v>
+        <v>178160</v>
       </c>
       <c r="C56" t="s">
         <v>558</v>
@@ -6756,7 +6756,7 @@
         <v>47281</v>
       </c>
       <c r="B57" t="n">
-        <v>146806</v>
+        <v>178161</v>
       </c>
       <c r="C57" t="s">
         <v>568</v>
@@ -6898,7 +6898,7 @@
         <v>47281</v>
       </c>
       <c r="B59" t="n">
-        <v>146807</v>
+        <v>178162</v>
       </c>
       <c r="C59" t="s">
         <v>585</v>
@@ -6973,7 +6973,7 @@
         <v>47281</v>
       </c>
       <c r="B60" t="n">
-        <v>146808</v>
+        <v>178163</v>
       </c>
       <c r="C60" t="s">
         <v>595</v>
@@ -7044,7 +7044,7 @@
         <v>47281</v>
       </c>
       <c r="B61" t="n">
-        <v>146809</v>
+        <v>178164</v>
       </c>
       <c r="C61" t="s">
         <v>602</v>
@@ -7119,7 +7119,7 @@
         <v>47281</v>
       </c>
       <c r="B62" t="n">
-        <v>146810</v>
+        <v>178165</v>
       </c>
       <c r="C62" t="s">
         <v>612</v>
@@ -7190,7 +7190,7 @@
         <v>47281</v>
       </c>
       <c r="B63" t="n">
-        <v>146811</v>
+        <v>178166</v>
       </c>
       <c r="C63" t="s">
         <v>621</v>
@@ -7261,7 +7261,7 @@
         <v>47281</v>
       </c>
       <c r="B64" t="n">
-        <v>146812</v>
+        <v>178167</v>
       </c>
       <c r="C64" t="s">
         <v>630</v>
@@ -7330,7 +7330,7 @@
         <v>47281</v>
       </c>
       <c r="B65" t="n">
-        <v>146813</v>
+        <v>178168</v>
       </c>
       <c r="C65" t="s">
         <v>638</v>
@@ -7468,7 +7468,7 @@
         <v>47281</v>
       </c>
       <c r="B67" t="n">
-        <v>146814</v>
+        <v>178169</v>
       </c>
       <c r="C67" t="s">
         <v>651</v>
@@ -7539,7 +7539,7 @@
         <v>47281</v>
       </c>
       <c r="B68" t="n">
-        <v>146815</v>
+        <v>178170</v>
       </c>
       <c r="C68" t="s">
         <v>658</v>
@@ -7752,7 +7752,7 @@
         <v>47281</v>
       </c>
       <c r="B71" t="n">
-        <v>146816</v>
+        <v>178171</v>
       </c>
       <c r="C71" t="s">
         <v>679</v>
@@ -7823,7 +7823,7 @@
         <v>47281</v>
       </c>
       <c r="B72" t="n">
-        <v>146817</v>
+        <v>178172</v>
       </c>
       <c r="C72" t="s">
         <v>688</v>
@@ -7898,7 +7898,7 @@
         <v>47281</v>
       </c>
       <c r="B73" t="n">
-        <v>146818</v>
+        <v>178173</v>
       </c>
       <c r="C73" t="s">
         <v>698</v>
@@ -7973,7 +7973,7 @@
         <v>47281</v>
       </c>
       <c r="B74" t="n">
-        <v>146819</v>
+        <v>178174</v>
       </c>
       <c r="C74" t="s">
         <v>708</v>
@@ -8038,7 +8038,7 @@
         <v>47281</v>
       </c>
       <c r="B75" t="n">
-        <v>146820</v>
+        <v>178175</v>
       </c>
       <c r="C75" t="s">
         <v>718</v>
@@ -8184,7 +8184,7 @@
         <v>47281</v>
       </c>
       <c r="B77" t="n">
-        <v>146821</v>
+        <v>178176</v>
       </c>
       <c r="C77" t="s">
         <v>737</v>
@@ -8249,7 +8249,7 @@
         <v>47281</v>
       </c>
       <c r="B78" t="n">
-        <v>146822</v>
+        <v>178177</v>
       </c>
       <c r="C78" t="s">
         <v>747</v>
@@ -8320,7 +8320,7 @@
         <v>47281</v>
       </c>
       <c r="B79" t="n">
-        <v>146823</v>
+        <v>178178</v>
       </c>
       <c r="C79" t="s">
         <v>754</v>
@@ -8395,7 +8395,7 @@
         <v>47281</v>
       </c>
       <c r="B80" t="n">
-        <v>146824</v>
+        <v>178179</v>
       </c>
       <c r="C80" t="s">
         <v>762</v>
@@ -8466,7 +8466,7 @@
         <v>47281</v>
       </c>
       <c r="B81" t="n">
-        <v>146825</v>
+        <v>178180</v>
       </c>
       <c r="C81" t="s">
         <v>769</v>
